--- a/Wavefolder/Assembly/Wavefolder CPL.xlsx
+++ b/Wavefolder/Assembly/Wavefolder CPL.xlsx
@@ -70,6 +70,9 @@
     <t>C13</t>
   </si>
   <si>
+    <t>C14</t>
+  </si>
+  <si>
     <t>D3</t>
   </si>
   <si>
@@ -167,9 +170,6 @@
   </si>
   <si>
     <t>R21</t>
-  </si>
-  <si>
-    <t>R22</t>
   </si>
   <si>
     <t>R23</t>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -302,6 +302,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +543,10 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>-3.225</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>98.25</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -557,10 +560,10 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>-24.775</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="3">
+        <v>-25.275</v>
+      </c>
+      <c r="C3" s="3">
         <v>98.25</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -574,11 +577,11 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>-8.725</v>
-      </c>
-      <c r="C4" s="2">
-        <v>90.75</v>
+      <c r="B4" s="3">
+        <v>-8.475</v>
+      </c>
+      <c r="C4" s="3">
+        <v>90.5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -591,10 +594,10 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>-18.5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>85.225</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -608,11 +611,11 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
-        <v>-8.725</v>
-      </c>
-      <c r="C6" s="2">
-        <v>62.25</v>
+      <c r="B6" s="3">
+        <v>-8.6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>62.2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -625,10 +628,10 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>-19.275</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>62.25</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -642,10 +645,10 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>-8.75</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>44.0</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -659,10 +662,10 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>-19.25</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>44.0</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -676,10 +679,10 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>-8.75</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>31.0</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -693,11 +696,11 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>-18.5</v>
       </c>
-      <c r="C11" s="2">
-        <v>25.25</v>
+      <c r="C11" s="3">
+        <v>25.725</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -710,10 +713,10 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>-20.75</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>66.0</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -727,10 +730,10 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>-20.75</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>47.75</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -744,10 +747,10 @@
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>-7.25</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>59.25</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -761,130 +764,130 @@
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>66.0</v>
+      <c r="B15" s="3">
+        <v>-6.223</v>
+      </c>
+      <c r="C15" s="3">
+        <v>40.005</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>47.75</v>
+      <c r="B16" s="3">
+        <v>-4.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>69.7</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2">
-        <v>-23.5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>66.0</v>
+      <c r="B17" s="3">
+        <v>-3.75</v>
+      </c>
+      <c r="C17" s="3">
+        <v>51.25</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>-23.5</v>
       </c>
-      <c r="C18" s="2">
-        <v>47.75</v>
+      <c r="C18" s="3">
+        <v>66.0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2">
-        <v>-1.75</v>
-      </c>
-      <c r="C19" s="2">
-        <v>102.15</v>
+      <c r="B19" s="3">
+        <v>-23.5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>47.75</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2">
-        <v>90.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2">
-        <v>-26.25</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="3">
+        <v>-1.75</v>
+      </c>
+      <c r="C20" s="3">
         <v>102.15</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2">
-        <v>-25.5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>59.25</v>
+      <c r="B21" s="3">
+        <v>-26.25</v>
+      </c>
+      <c r="C21" s="3">
+        <v>102.15</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2">
-        <v>-25.5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>41.0</v>
+      <c r="B22" s="3">
+        <v>-23.75</v>
+      </c>
+      <c r="C22" s="3">
+        <v>61.15</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -897,78 +900,78 @@
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2">
-        <v>-4.5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>59.25</v>
+      <c r="B23" s="3">
+        <v>-24.25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43.0</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2">
-        <v>-5.25</v>
-      </c>
-      <c r="C24" s="2">
-        <v>43.0</v>
+      <c r="B24" s="3">
+        <v>-4.5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>59.25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2">
-        <v>-10.25</v>
-      </c>
-      <c r="C25" s="2">
-        <v>93.75</v>
+      <c r="B25" s="3">
+        <v>-5.25</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43.0</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2">
-        <v>-14.0</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="3">
+        <v>-10.25</v>
+      </c>
+      <c r="C26" s="3">
         <v>93.75</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2">
-        <v>-5.0</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="3">
+        <v>-14.0</v>
+      </c>
+      <c r="C27" s="3">
         <v>93.75</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -982,10 +985,10 @@
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2">
-        <v>-7.25</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28" s="3">
+        <v>-5.0</v>
+      </c>
+      <c r="C28" s="3">
         <v>93.75</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -999,28 +1002,28 @@
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="2">
-        <v>-6.0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>87.5</v>
+      <c r="B29" s="3">
+        <v>-7.25</v>
+      </c>
+      <c r="C29" s="3">
+        <v>93.75</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2">
-        <v>-21.9125</v>
-      </c>
-      <c r="C30" s="2">
-        <v>95.75</v>
+      <c r="B30" s="3">
+        <v>-6.0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>87.0</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1033,11 +1036,11 @@
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2">
-        <v>-8.25</v>
-      </c>
-      <c r="C31" s="2">
-        <v>83.25</v>
+      <c r="B31" s="3">
+        <v>-21.844</v>
+      </c>
+      <c r="C31" s="3">
+        <v>93.345</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1050,79 +1053,79 @@
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2">
-        <v>-17.0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>93.75</v>
+      <c r="B32" s="3">
+        <v>-8.25</v>
+      </c>
+      <c r="C32" s="3">
+        <v>82.75</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2">
-        <v>-8.25</v>
-      </c>
-      <c r="C33" s="2">
-        <v>85.25</v>
+      <c r="B33" s="3">
+        <v>-17.0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>93.75</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="2">
-        <v>-9.0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>88.25</v>
+      <c r="B34" s="3">
+        <v>-8.25</v>
+      </c>
+      <c r="C34" s="3">
+        <v>84.75</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2">
-        <v>-7.25</v>
-      </c>
-      <c r="C35" s="2">
-        <v>28.5</v>
+      <c r="B35" s="3">
+        <v>-9.0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>87.75</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="2">
-        <v>-20.75</v>
-      </c>
-      <c r="C36" s="2">
-        <v>29.75</v>
+      <c r="B36" s="3">
+        <v>-7.25</v>
+      </c>
+      <c r="C36" s="3">
+        <v>28.5</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1135,45 +1138,45 @@
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="2">
-        <v>-10.0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>80.0</v>
+      <c r="B37" s="3">
+        <v>-20.75</v>
+      </c>
+      <c r="C37" s="3">
+        <v>29.75</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="2">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="2">
-        <v>-21.9125</v>
-      </c>
-      <c r="C38" s="2">
-        <v>89.0</v>
+      <c r="B38" s="3">
+        <v>-10.0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>80.0</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="2">
-        <v>-21.9125</v>
-      </c>
-      <c r="C39" s="2">
-        <v>86.75</v>
+      <c r="B39" s="3">
+        <v>-21.844</v>
+      </c>
+      <c r="C39" s="3">
+        <v>89.0</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1186,28 +1189,28 @@
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="2">
-        <v>-18.75</v>
-      </c>
-      <c r="C40" s="2">
-        <v>29.75</v>
+      <c r="B40" s="3">
+        <v>-21.844</v>
+      </c>
+      <c r="C40" s="3">
+        <v>86.75</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="2">
-        <v>-9.25</v>
-      </c>
-      <c r="C41" s="2">
-        <v>28.5</v>
+      <c r="B41" s="3">
+        <v>-18.75</v>
+      </c>
+      <c r="C41" s="3">
+        <v>29.75</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -1220,11 +1223,11 @@
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="2">
-        <v>-19.0</v>
-      </c>
-      <c r="C42" s="2">
-        <v>89.75</v>
+      <c r="B42" s="3">
+        <v>-9.25</v>
+      </c>
+      <c r="C42" s="3">
+        <v>28.5</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -1237,79 +1240,79 @@
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="2">
-        <v>-14.75</v>
-      </c>
-      <c r="C43" s="2">
-        <v>23.5875</v>
+      <c r="B43" s="3">
+        <v>-19.0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>89.75</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="2">
-        <v>-19.75</v>
-      </c>
-      <c r="C44" s="2">
-        <v>33.0</v>
+      <c r="B44" s="3">
+        <v>-14.75</v>
+      </c>
+      <c r="C44" s="3">
+        <v>23.5875</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="2">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>-19.75</v>
       </c>
-      <c r="C45" s="2">
-        <v>35.0</v>
+      <c r="C45" s="3">
+        <v>33.0</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="2">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="2">
-        <v>-21.9125</v>
-      </c>
-      <c r="C46" s="2">
-        <v>91.25</v>
+      <c r="B46" s="3">
+        <v>-19.75</v>
+      </c>
+      <c r="C46" s="3">
+        <v>35.0</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="2">
-        <v>-21.9125</v>
-      </c>
-      <c r="C47" s="2">
-        <v>93.5</v>
+      <c r="B47" s="3">
+        <v>-21.844</v>
+      </c>
+      <c r="C47" s="3">
+        <v>91.25</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1322,27 +1325,27 @@
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="2">
-        <v>-6.5</v>
-      </c>
-      <c r="C48" s="2">
-        <v>39.75</v>
+      <c r="B48" s="3">
+        <v>-21.844</v>
+      </c>
+      <c r="C48" s="3">
+        <v>95.377</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="2">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>-7.25</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>66.0</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1356,10 +1359,10 @@
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="2">
-        <v>-5.25</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B50" s="3">
+        <v>-5.2</v>
+      </c>
+      <c r="C50" s="3">
         <v>66.0</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -1373,10 +1376,10 @@
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>-7.25</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>47.6625</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -1390,10 +1393,10 @@
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>-5.25</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>47.6625</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1407,10 +1410,10 @@
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>-9.25</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <v>66.0</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -1424,10 +1427,10 @@
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>-9.25</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>47.6625</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1441,10 +1444,10 @@
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>-13.5</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="3">
         <v>68.25</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -1458,10 +1461,10 @@
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>-13.5</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="3">
         <v>70.25</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -1475,10 +1478,10 @@
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>-13.5</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>50.0</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1492,10 +1495,10 @@
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>-13.5</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <v>52.0</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -1509,10 +1512,10 @@
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>-18.75</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <v>66.0</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -1526,10 +1529,10 @@
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>-18.75</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <v>47.75</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -1543,10 +1546,10 @@
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>-20.75</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>59.25</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -1560,27 +1563,27 @@
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="2">
-        <v>-22.75</v>
-      </c>
-      <c r="C62" s="2">
-        <v>59.25</v>
+      <c r="B62" s="3">
+        <v>-23.75</v>
+      </c>
+      <c r="C62" s="3">
+        <v>58.15</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>-20.75</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>41.0</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -1594,27 +1597,27 @@
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="2">
-        <v>-22.75</v>
-      </c>
-      <c r="C64" s="2">
-        <v>41.0</v>
+      <c r="B64" s="3">
+        <v>-24.25</v>
+      </c>
+      <c r="C64" s="3">
+        <v>40.0</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="2">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>-18.75</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <v>59.25</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -1628,10 +1631,10 @@
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <v>-18.75</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="3">
         <v>41.0</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -1645,10 +1648,10 @@
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>-14.5</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <v>56.75</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -1662,10 +1665,10 @@
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <v>-14.5</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <v>54.75</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -1679,10 +1682,10 @@
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>-15.5</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <v>38.5</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -1696,10 +1699,10 @@
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>-15.5</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <v>36.5</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -1713,10 +1716,10 @@
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <v>-9.25</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>59.25</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -1730,10 +1733,10 @@
       <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <v>-9.25</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="3">
         <v>41.0</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -1747,10 +1750,10 @@
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <v>-14.0</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="3">
         <v>62.5</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -1764,10 +1767,10 @@
       <c r="A74" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="3">
         <v>-14.0</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <v>44.25</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -1781,10 +1784,10 @@
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <v>-14.0</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <v>88.5</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -1798,10 +1801,10 @@
       <c r="A76" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <v>-14.0</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="3">
         <v>28.5</v>
       </c>
       <c r="D76" s="2" t="s">

--- a/Wavefolder/Assembly/Wavefolder CPL.xlsx
+++ b/Wavefolder/Assembly/Wavefolder CPL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
   <si>
     <t>Designator</t>
   </si>
@@ -73,6 +73,9 @@
     <t>C14</t>
   </si>
   <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>D3</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
   </si>
   <si>
     <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
   </si>
   <si>
     <t>Q1</t>
@@ -260,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -272,6 +278,10 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -305,6 +315,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,10 +795,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>-4.1</v>
+        <v>-25.0</v>
       </c>
       <c r="C16" s="3">
-        <v>69.7</v>
+        <v>90.932</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -799,10 +812,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>-3.75</v>
+        <v>-4.1</v>
       </c>
       <c r="C17" s="3">
-        <v>51.25</v>
+        <v>69.7</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -816,16 +829,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>-23.5</v>
+        <v>-3.75</v>
       </c>
       <c r="C18" s="3">
-        <v>66.0</v>
+        <v>51.25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="19">
@@ -836,7 +849,7 @@
         <v>-23.5</v>
       </c>
       <c r="C19" s="3">
-        <v>47.75</v>
+        <v>66.0</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -850,16 +863,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>-1.75</v>
+        <v>-23.5</v>
       </c>
       <c r="C20" s="3">
-        <v>102.15</v>
+        <v>47.75</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>90.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>-26.25</v>
+        <v>-1.75</v>
       </c>
       <c r="C21" s="3">
         <v>102.15</v>
@@ -876,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="22">
@@ -884,16 +897,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>-23.75</v>
+        <v>-26.25</v>
       </c>
       <c r="C22" s="3">
-        <v>61.15</v>
+        <v>102.15</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="23">
@@ -901,10 +914,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>-24.25</v>
+        <v>-23.75</v>
       </c>
       <c r="C23" s="3">
-        <v>43.0</v>
+        <v>61.15</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -918,10 +931,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>-4.5</v>
+        <v>-24.25</v>
       </c>
       <c r="C24" s="3">
-        <v>59.25</v>
+        <v>43.0</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -935,10 +948,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>-5.25</v>
+        <v>-4.5</v>
       </c>
       <c r="C25" s="3">
-        <v>43.0</v>
+        <v>59.25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -952,16 +965,16 @@
         <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>-10.25</v>
+        <v>-5.25</v>
       </c>
       <c r="C26" s="3">
-        <v>93.75</v>
+        <v>43.0</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -969,16 +982,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>-14.0</v>
+        <v>-11.43</v>
       </c>
       <c r="C27" s="3">
-        <v>93.75</v>
+        <v>37.084</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="28">
@@ -986,7 +999,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>-5.0</v>
+        <v>-10.25</v>
       </c>
       <c r="C28" s="3">
         <v>93.75</v>
@@ -995,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="29">
@@ -1003,7 +1016,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>-7.25</v>
+        <v>-14.0</v>
       </c>
       <c r="C29" s="3">
         <v>93.75</v>
@@ -1020,16 +1033,16 @@
         <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>-6.0</v>
+        <v>-5.0</v>
       </c>
       <c r="C30" s="3">
-        <v>87.0</v>
+        <v>93.75</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="31">
@@ -1037,16 +1050,16 @@
         <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>-21.844</v>
+        <v>-7.25</v>
       </c>
       <c r="C31" s="3">
-        <v>93.345</v>
+        <v>93.75</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="2">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="32">
@@ -1054,10 +1067,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>-8.25</v>
+        <v>-6.0</v>
       </c>
       <c r="C32" s="3">
-        <v>82.75</v>
+        <v>87.0</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -1071,16 +1084,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>-17.0</v>
+        <v>-21.844</v>
       </c>
       <c r="C33" s="3">
-        <v>93.75</v>
+        <v>93.345</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="34">
@@ -1091,13 +1104,13 @@
         <v>-8.25</v>
       </c>
       <c r="C34" s="3">
-        <v>84.75</v>
+        <v>82.75</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="35">
@@ -1105,10 +1118,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>-9.0</v>
+        <v>-17.0</v>
       </c>
       <c r="C35" s="3">
-        <v>87.75</v>
+        <v>93.75</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1122,16 +1135,16 @@
         <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>-7.25</v>
+        <v>-8.25</v>
       </c>
       <c r="C36" s="3">
-        <v>28.5</v>
+        <v>84.75</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1139,16 +1152,16 @@
         <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>-20.75</v>
+        <v>-9.0</v>
       </c>
       <c r="C37" s="3">
-        <v>29.75</v>
+        <v>87.75</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="38">
@@ -1156,16 +1169,16 @@
         <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>-10.0</v>
+        <v>-7.25</v>
       </c>
       <c r="C38" s="3">
-        <v>80.0</v>
+        <v>28.5</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="39">
@@ -1173,16 +1186,16 @@
         <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>-21.844</v>
+        <v>-20.75</v>
       </c>
       <c r="C39" s="3">
-        <v>89.0</v>
+        <v>29.75</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="40">
@@ -1190,16 +1203,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>-21.844</v>
+        <v>-10.0</v>
       </c>
       <c r="C40" s="3">
-        <v>86.75</v>
+        <v>80.0</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="2">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -1207,16 +1220,16 @@
         <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>-18.75</v>
+        <v>-21.844</v>
       </c>
       <c r="C41" s="3">
-        <v>29.75</v>
+        <v>89.0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="42">
@@ -1224,16 +1237,16 @@
         <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>-9.25</v>
+        <v>-21.844</v>
       </c>
       <c r="C42" s="3">
-        <v>28.5</v>
+        <v>86.75</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="43">
@@ -1241,10 +1254,10 @@
         <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>-19.0</v>
+        <v>-18.75</v>
       </c>
       <c r="C43" s="3">
-        <v>89.75</v>
+        <v>29.75</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -1258,16 +1271,16 @@
         <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>-14.75</v>
+        <v>-9.25</v>
       </c>
       <c r="C44" s="3">
-        <v>23.5875</v>
+        <v>28.5</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="45">
@@ -1275,16 +1288,16 @@
         <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>-19.75</v>
+        <v>-19.0</v>
       </c>
       <c r="C45" s="3">
-        <v>33.0</v>
+        <v>89.75</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="46">
@@ -1292,16 +1305,16 @@
         <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>-19.75</v>
+        <v>-14.75</v>
       </c>
       <c r="C46" s="3">
-        <v>35.0</v>
+        <v>23.5875</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="47">
@@ -1309,10 +1322,10 @@
         <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>-21.844</v>
+        <v>-19.75</v>
       </c>
       <c r="C47" s="3">
-        <v>91.25</v>
+        <v>33.0</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1326,16 +1339,16 @@
         <v>52</v>
       </c>
       <c r="B48" s="3">
-        <v>-21.844</v>
+        <v>-19.75</v>
       </c>
       <c r="C48" s="3">
-        <v>95.377</v>
+        <v>35.0</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="49">
@@ -1343,16 +1356,16 @@
         <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>-7.25</v>
+        <v>-21.844</v>
       </c>
       <c r="C49" s="3">
-        <v>66.0</v>
+        <v>91.25</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -1360,16 +1373,16 @@
         <v>54</v>
       </c>
       <c r="B50" s="3">
-        <v>-5.2</v>
+        <v>-21.844</v>
       </c>
       <c r="C50" s="3">
-        <v>66.0</v>
+        <v>95.377</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -1380,7 +1393,7 @@
         <v>-7.25</v>
       </c>
       <c r="C51" s="3">
-        <v>47.6625</v>
+        <v>66.0</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -1394,10 +1407,10 @@
         <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>-5.25</v>
+        <v>-5.2</v>
       </c>
       <c r="C52" s="3">
-        <v>47.6625</v>
+        <v>66.0</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1411,16 +1424,16 @@
         <v>57</v>
       </c>
       <c r="B53" s="3">
-        <v>-9.25</v>
+        <v>-7.25</v>
       </c>
       <c r="C53" s="3">
-        <v>66.0</v>
+        <v>47.6625</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="54">
@@ -1428,7 +1441,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>-9.25</v>
+        <v>-5.25</v>
       </c>
       <c r="C54" s="3">
         <v>47.6625</v>
@@ -1437,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="E54" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="55">
@@ -1445,16 +1458,16 @@
         <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>-13.5</v>
+        <v>-9.25</v>
       </c>
       <c r="C55" s="3">
-        <v>68.25</v>
+        <v>66.0</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="56">
@@ -1462,16 +1475,16 @@
         <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>-13.5</v>
+        <v>-9.25</v>
       </c>
       <c r="C56" s="3">
-        <v>70.25</v>
+        <v>47.6625</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="57">
@@ -1482,7 +1495,7 @@
         <v>-13.5</v>
       </c>
       <c r="C57" s="3">
-        <v>50.0</v>
+        <v>68.25</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -1499,7 +1512,7 @@
         <v>-13.5</v>
       </c>
       <c r="C58" s="3">
-        <v>52.0</v>
+        <v>70.25</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -1513,16 +1526,16 @@
         <v>63</v>
       </c>
       <c r="B59" s="3">
-        <v>-18.75</v>
+        <v>-13.5</v>
       </c>
       <c r="C59" s="3">
-        <v>66.0</v>
+        <v>50.0</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="2">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -1530,16 +1543,16 @@
         <v>64</v>
       </c>
       <c r="B60" s="3">
-        <v>-18.75</v>
+        <v>-13.5</v>
       </c>
       <c r="C60" s="3">
-        <v>47.75</v>
+        <v>52.0</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="2">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -1547,10 +1560,10 @@
         <v>65</v>
       </c>
       <c r="B61" s="3">
-        <v>-20.75</v>
+        <v>-18.75</v>
       </c>
       <c r="C61" s="3">
-        <v>59.25</v>
+        <v>66.0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
@@ -1564,16 +1577,16 @@
         <v>66</v>
       </c>
       <c r="B62" s="3">
-        <v>-23.75</v>
+        <v>-18.75</v>
       </c>
       <c r="C62" s="3">
-        <v>58.15</v>
+        <v>47.75</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="2">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="63">
@@ -1584,7 +1597,7 @@
         <v>-20.75</v>
       </c>
       <c r="C63" s="3">
-        <v>41.0</v>
+        <v>59.25</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
@@ -1598,16 +1611,16 @@
         <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>-24.25</v>
+        <v>-23.75</v>
       </c>
       <c r="C64" s="3">
-        <v>40.0</v>
+        <v>58.15</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="65">
@@ -1615,16 +1628,16 @@
         <v>69</v>
       </c>
       <c r="B65" s="3">
-        <v>-18.75</v>
+        <v>-20.75</v>
       </c>
       <c r="C65" s="3">
-        <v>59.25</v>
+        <v>41.0</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="66">
@@ -1632,16 +1645,16 @@
         <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>-18.75</v>
+        <v>-24.25</v>
       </c>
       <c r="C66" s="3">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -1649,16 +1662,16 @@
         <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>-14.5</v>
+        <v>-18.75</v>
       </c>
       <c r="C67" s="3">
-        <v>56.75</v>
+        <v>59.25</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="68">
@@ -1666,16 +1679,16 @@
         <v>72</v>
       </c>
       <c r="B68" s="3">
-        <v>-14.5</v>
+        <v>-18.75</v>
       </c>
       <c r="C68" s="3">
-        <v>54.75</v>
+        <v>41.0</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="69">
@@ -1683,10 +1696,10 @@
         <v>73</v>
       </c>
       <c r="B69" s="3">
-        <v>-15.5</v>
+        <v>-14.5</v>
       </c>
       <c r="C69" s="3">
-        <v>38.5</v>
+        <v>56.75</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -1700,10 +1713,10 @@
         <v>74</v>
       </c>
       <c r="B70" s="3">
-        <v>-15.5</v>
+        <v>-14.5</v>
       </c>
       <c r="C70" s="3">
-        <v>36.5</v>
+        <v>54.75</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -1717,16 +1730,16 @@
         <v>75</v>
       </c>
       <c r="B71" s="3">
-        <v>-9.25</v>
+        <v>-15.5</v>
       </c>
       <c r="C71" s="3">
-        <v>59.25</v>
+        <v>38.5</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="2">
-        <v>90.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="72">
@@ -1734,16 +1747,16 @@
         <v>76</v>
       </c>
       <c r="B72" s="3">
-        <v>-9.25</v>
+        <v>-15.5</v>
       </c>
       <c r="C72" s="3">
-        <v>41.0</v>
+        <v>36.5</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="2">
-        <v>90.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="73">
@@ -1751,10 +1764,10 @@
         <v>77</v>
       </c>
       <c r="B73" s="3">
-        <v>-14.0</v>
+        <v>-9.25</v>
       </c>
       <c r="C73" s="3">
-        <v>62.5</v>
+        <v>59.25</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
@@ -1768,10 +1781,10 @@
         <v>78</v>
       </c>
       <c r="B74" s="3">
-        <v>-14.0</v>
+        <v>-9.25</v>
       </c>
       <c r="C74" s="3">
-        <v>44.25</v>
+        <v>41.0</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -1788,13 +1801,13 @@
         <v>-14.0</v>
       </c>
       <c r="C75" s="3">
-        <v>88.5</v>
+        <v>62.5</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="76">
@@ -1805,14 +1818,54 @@
         <v>-14.0</v>
       </c>
       <c r="C76" s="3">
+        <v>44.25</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="3">
+        <v>-14.0</v>
+      </c>
+      <c r="C77" s="3">
+        <v>88.5</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="3">
+        <v>-14.0</v>
+      </c>
+      <c r="C78" s="3">
         <v>28.5</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2">
         <v>270.0</v>
       </c>
+    </row>
+    <row r="79">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="E80" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Wavefolder/Assembly/Wavefolder CPL.xlsx
+++ b/Wavefolder/Assembly/Wavefolder CPL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>Designator</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
   </si>
   <si>
     <t>D1</t>
@@ -266,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -277,7 +283,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -316,7 +321,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -795,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>-25.0</v>
+        <v>-6.75</v>
       </c>
       <c r="C16" s="3">
-        <v>90.932</v>
+        <v>87.75</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="17">
@@ -812,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>-4.1</v>
+        <v>-7.0</v>
       </c>
       <c r="C17" s="3">
-        <v>69.7</v>
+        <v>28.5</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="18">
@@ -829,10 +834,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>-3.75</v>
+        <v>-25.0</v>
       </c>
       <c r="C18" s="3">
-        <v>51.25</v>
+        <v>90.932</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -846,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>-23.5</v>
+        <v>-4.1</v>
       </c>
       <c r="C19" s="3">
-        <v>66.0</v>
+        <v>69.7</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="20">
@@ -863,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>-23.5</v>
+        <v>-3.75</v>
       </c>
       <c r="C20" s="3">
-        <v>47.75</v>
+        <v>51.25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="21">
@@ -880,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>-1.75</v>
+        <v>-23.5</v>
       </c>
       <c r="C21" s="3">
-        <v>102.15</v>
+        <v>66.0</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2">
-        <v>90.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="22">
@@ -897,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>-26.25</v>
+        <v>-23.5</v>
       </c>
       <c r="C22" s="3">
-        <v>102.15</v>
+        <v>47.75</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="23">
@@ -914,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>-23.75</v>
+        <v>-1.75</v>
       </c>
       <c r="C23" s="3">
-        <v>61.15</v>
+        <v>102.15</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="24">
@@ -931,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>-24.25</v>
+        <v>-26.25</v>
       </c>
       <c r="C24" s="3">
-        <v>43.0</v>
+        <v>102.15</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +953,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>-4.5</v>
+        <v>-23.75</v>
       </c>
       <c r="C25" s="3">
-        <v>59.25</v>
+        <v>61.15</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -965,7 +970,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>-5.25</v>
+        <v>-24.25</v>
       </c>
       <c r="C26" s="3">
         <v>43.0</v>
@@ -982,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>-11.43</v>
+        <v>-4.5</v>
       </c>
       <c r="C27" s="3">
-        <v>37.084</v>
+        <v>59.25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -999,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>-10.25</v>
+        <v>-5.25</v>
       </c>
       <c r="C28" s="3">
-        <v>93.75</v>
+        <v>43.0</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1016,16 +1021,16 @@
         <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>-14.0</v>
+        <v>-11.43</v>
       </c>
       <c r="C29" s="3">
-        <v>93.75</v>
+        <v>37.084</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="30">
@@ -1033,7 +1038,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>-5.0</v>
+        <v>-10.25</v>
       </c>
       <c r="C30" s="3">
         <v>93.75</v>
@@ -1042,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="31">
@@ -1050,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>-7.25</v>
+        <v>-14.0</v>
       </c>
       <c r="C31" s="3">
         <v>93.75</v>
@@ -1067,16 +1072,16 @@
         <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>-6.0</v>
+        <v>-5.0</v>
       </c>
       <c r="C32" s="3">
-        <v>87.0</v>
+        <v>93.75</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="33">
@@ -1084,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>-21.844</v>
+        <v>-7.25</v>
       </c>
       <c r="C33" s="3">
-        <v>93.345</v>
+        <v>93.75</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="34">
@@ -1101,10 +1106,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>-8.25</v>
+        <v>-6.0</v>
       </c>
       <c r="C34" s="3">
-        <v>82.75</v>
+        <v>87.0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1118,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>-17.0</v>
+        <v>-21.844</v>
       </c>
       <c r="C35" s="3">
-        <v>93.75</v>
+        <v>93.345</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="36">
@@ -1138,13 +1143,13 @@
         <v>-8.25</v>
       </c>
       <c r="C36" s="3">
-        <v>84.75</v>
+        <v>82.75</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="37">
@@ -1152,10 +1157,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>-9.0</v>
+        <v>-17.0</v>
       </c>
       <c r="C37" s="3">
-        <v>87.75</v>
+        <v>93.75</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -1169,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>-7.25</v>
+        <v>-8.25</v>
       </c>
       <c r="C38" s="3">
-        <v>28.5</v>
+        <v>84.75</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1186,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>-20.75</v>
+        <v>-9.0</v>
       </c>
       <c r="C39" s="3">
-        <v>29.75</v>
+        <v>87.75</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="40">
@@ -1203,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>-10.0</v>
+        <v>-7.25</v>
       </c>
       <c r="C40" s="3">
-        <v>80.0</v>
+        <v>28.5</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="2">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="41">
@@ -1220,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>-21.844</v>
+        <v>-20.75</v>
       </c>
       <c r="C41" s="3">
-        <v>89.0</v>
+        <v>29.75</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="42">
@@ -1237,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>-21.844</v>
+        <v>-10.0</v>
       </c>
       <c r="C42" s="3">
-        <v>86.75</v>
+        <v>80.0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="2">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1254,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>-18.75</v>
+        <v>-21.844</v>
       </c>
       <c r="C43" s="3">
-        <v>29.75</v>
+        <v>89.0</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="44">
@@ -1271,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>-9.25</v>
+        <v>-21.844</v>
       </c>
       <c r="C44" s="3">
-        <v>28.5</v>
+        <v>86.75</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="45">
@@ -1288,10 +1293,10 @@
         <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>-19.0</v>
+        <v>-18.75</v>
       </c>
       <c r="C45" s="3">
-        <v>89.75</v>
+        <v>29.75</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1305,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>-14.75</v>
+        <v>-9.25</v>
       </c>
       <c r="C46" s="3">
-        <v>23.5875</v>
+        <v>28.5</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>-19.75</v>
+        <v>-19.0</v>
       </c>
       <c r="C47" s="3">
-        <v>33.0</v>
+        <v>89.75</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="48">
@@ -1339,16 +1344,16 @@
         <v>52</v>
       </c>
       <c r="B48" s="3">
-        <v>-19.75</v>
+        <v>-14.75</v>
       </c>
       <c r="C48" s="3">
-        <v>35.0</v>
+        <v>23.5875</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="49">
@@ -1356,10 +1361,10 @@
         <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>-21.844</v>
+        <v>-19.75</v>
       </c>
       <c r="C49" s="3">
-        <v>91.25</v>
+        <v>33.0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1373,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B50" s="3">
-        <v>-21.844</v>
+        <v>-19.75</v>
       </c>
       <c r="C50" s="3">
-        <v>95.377</v>
+        <v>35.0</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="51">
@@ -1390,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>-7.25</v>
+        <v>-21.844</v>
       </c>
       <c r="C51" s="3">
-        <v>66.0</v>
+        <v>91.25</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -1407,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>-5.2</v>
+        <v>-21.844</v>
       </c>
       <c r="C52" s="3">
-        <v>66.0</v>
+        <v>95.377</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -1427,7 +1432,7 @@
         <v>-7.25</v>
       </c>
       <c r="C53" s="3">
-        <v>47.6625</v>
+        <v>66.0</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -1441,10 +1446,10 @@
         <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>-5.25</v>
+        <v>-5.2</v>
       </c>
       <c r="C54" s="3">
-        <v>47.6625</v>
+        <v>66.0</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -1458,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>-9.25</v>
+        <v>-7.25</v>
       </c>
       <c r="C55" s="3">
-        <v>66.0</v>
+        <v>47.6625</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="56">
@@ -1475,7 +1480,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>-9.25</v>
+        <v>-5.25</v>
       </c>
       <c r="C56" s="3">
         <v>47.6625</v>
@@ -1484,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="57">
@@ -1492,16 +1497,16 @@
         <v>61</v>
       </c>
       <c r="B57" s="3">
-        <v>-13.5</v>
+        <v>-9.25</v>
       </c>
       <c r="C57" s="3">
-        <v>68.25</v>
+        <v>66.0</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="58">
@@ -1509,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>-13.5</v>
+        <v>-9.25</v>
       </c>
       <c r="C58" s="3">
-        <v>70.25</v>
+        <v>47.6625</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="59">
@@ -1529,7 +1534,7 @@
         <v>-13.5</v>
       </c>
       <c r="C59" s="3">
-        <v>50.0</v>
+        <v>68.25</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -1546,7 +1551,7 @@
         <v>-13.5</v>
       </c>
       <c r="C60" s="3">
-        <v>52.0</v>
+        <v>70.25</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -1560,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B61" s="3">
-        <v>-18.75</v>
+        <v>-13.5</v>
       </c>
       <c r="C61" s="3">
-        <v>66.0</v>
+        <v>50.0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="2">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -1577,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="B62" s="3">
-        <v>-18.75</v>
+        <v>-13.5</v>
       </c>
       <c r="C62" s="3">
-        <v>47.75</v>
+        <v>52.0</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="2">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -1594,10 +1599,10 @@
         <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>-20.75</v>
+        <v>-18.75</v>
       </c>
       <c r="C63" s="3">
-        <v>59.25</v>
+        <v>66.0</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
@@ -1611,16 +1616,16 @@
         <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>-23.75</v>
+        <v>-18.75</v>
       </c>
       <c r="C64" s="3">
-        <v>58.15</v>
+        <v>47.75</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="2">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="65">
@@ -1631,7 +1636,7 @@
         <v>-20.75</v>
       </c>
       <c r="C65" s="3">
-        <v>41.0</v>
+        <v>59.25</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
@@ -1645,16 +1650,16 @@
         <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>-24.25</v>
+        <v>-23.75</v>
       </c>
       <c r="C66" s="3">
-        <v>40.0</v>
+        <v>58.15</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="67">
@@ -1662,16 +1667,16 @@
         <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>-18.75</v>
+        <v>-20.75</v>
       </c>
       <c r="C67" s="3">
-        <v>59.25</v>
+        <v>41.0</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="68">
@@ -1679,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B68" s="3">
-        <v>-18.75</v>
+        <v>-24.25</v>
       </c>
       <c r="C68" s="3">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -1696,16 +1701,16 @@
         <v>73</v>
       </c>
       <c r="B69" s="3">
-        <v>-14.5</v>
+        <v>-18.75</v>
       </c>
       <c r="C69" s="3">
-        <v>56.75</v>
+        <v>59.25</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="70">
@@ -1713,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B70" s="3">
-        <v>-14.5</v>
+        <v>-18.75</v>
       </c>
       <c r="C70" s="3">
-        <v>54.75</v>
+        <v>41.0</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="71">
@@ -1730,10 +1735,10 @@
         <v>75</v>
       </c>
       <c r="B71" s="3">
-        <v>-15.5</v>
+        <v>-14.5</v>
       </c>
       <c r="C71" s="3">
-        <v>38.5</v>
+        <v>56.75</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
@@ -1747,10 +1752,10 @@
         <v>76</v>
       </c>
       <c r="B72" s="3">
-        <v>-15.5</v>
+        <v>-14.5</v>
       </c>
       <c r="C72" s="3">
-        <v>36.5</v>
+        <v>54.75</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
@@ -1764,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B73" s="3">
-        <v>-9.25</v>
+        <v>-15.5</v>
       </c>
       <c r="C73" s="3">
-        <v>59.25</v>
+        <v>38.5</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="2">
-        <v>90.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="74">
@@ -1781,16 +1786,16 @@
         <v>78</v>
       </c>
       <c r="B74" s="3">
-        <v>-9.25</v>
+        <v>-15.5</v>
       </c>
       <c r="C74" s="3">
-        <v>41.0</v>
+        <v>36.5</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="2">
-        <v>90.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="75">
@@ -1798,10 +1803,10 @@
         <v>79</v>
       </c>
       <c r="B75" s="3">
-        <v>-14.0</v>
+        <v>-9.25</v>
       </c>
       <c r="C75" s="3">
-        <v>62.5</v>
+        <v>59.25</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
@@ -1815,10 +1820,10 @@
         <v>80</v>
       </c>
       <c r="B76" s="3">
-        <v>-14.0</v>
+        <v>-9.25</v>
       </c>
       <c r="C76" s="3">
-        <v>44.25</v>
+        <v>41.0</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
@@ -1835,13 +1840,13 @@
         <v>-14.0</v>
       </c>
       <c r="C77" s="3">
-        <v>88.5</v>
+        <v>62.5</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="2">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="78">
@@ -1852,20 +1857,56 @@
         <v>-14.0</v>
       </c>
       <c r="C78" s="3">
+        <v>44.25</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="3">
+        <v>-14.0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>88.5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="2">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="3">
+        <v>-14.0</v>
+      </c>
+      <c r="C80" s="3">
         <v>28.5</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="2">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80">
-      <c r="E80" s="4"/>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="2">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Wavefolder/Assembly/Wavefolder CPL.xlsx
+++ b/Wavefolder/Assembly/Wavefolder CPL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
   <si>
     <t>Designator</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
   </si>
   <si>
     <t>D1</t>
@@ -266,7 +269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -277,7 +280,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -303,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -311,12 +313,16 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,9 +539,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -569,7 +578,7 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -586,7 +595,7 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -603,7 +612,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -620,7 +629,7 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -637,7 +646,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -654,7 +663,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -671,7 +680,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -688,7 +697,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -705,7 +714,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -722,7 +731,7 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -739,7 +748,7 @@
         <v>270.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -756,7 +765,7 @@
         <v>270.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -773,7 +782,7 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -790,32 +799,32 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3">
-        <v>-25.0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>90.932</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" s="5">
+        <v>-6.75</v>
+      </c>
+      <c r="C16" s="5">
+        <v>87.75</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>-4.1</v>
+        <v>-25.0</v>
       </c>
       <c r="C17" s="3">
-        <v>69.7</v>
+        <v>90.932</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -824,15 +833,15 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>-3.75</v>
+        <v>-4.1</v>
       </c>
       <c r="C18" s="3">
-        <v>51.25</v>
+        <v>69.7</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -841,24 +850,24 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>-23.5</v>
+        <v>-3.75</v>
       </c>
       <c r="C19" s="3">
-        <v>66.0</v>
+        <v>51.25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -866,7 +875,7 @@
         <v>-23.5</v>
       </c>
       <c r="C20" s="3">
-        <v>47.75</v>
+        <v>66.0</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -875,29 +884,29 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>-1.75</v>
+        <v>-23.5</v>
       </c>
       <c r="C21" s="3">
-        <v>102.15</v>
+        <v>47.75</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>-26.25</v>
+        <v>-1.75</v>
       </c>
       <c r="C22" s="3">
         <v>102.15</v>
@@ -906,35 +915,35 @@
         <v>6</v>
       </c>
       <c r="E22" s="2">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>-23.75</v>
+        <v>-26.25</v>
       </c>
       <c r="C23" s="3">
-        <v>61.15</v>
+        <v>102.15</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>-24.25</v>
+        <v>-23.75</v>
       </c>
       <c r="C24" s="3">
-        <v>43.0</v>
+        <v>61.15</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -943,15 +952,15 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>-4.5</v>
+        <v>-24.25</v>
       </c>
       <c r="C25" s="3">
-        <v>59.25</v>
+        <v>43.0</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -960,15 +969,15 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>-5.25</v>
+        <v>-4.5</v>
       </c>
       <c r="C26" s="3">
-        <v>43.0</v>
+        <v>59.25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -977,46 +986,46 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>-11.43</v>
+        <v>-5.25</v>
       </c>
       <c r="C27" s="3">
-        <v>37.084</v>
+        <v>43.0</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>-10.25</v>
+        <v>-11.43</v>
       </c>
       <c r="C28" s="3">
-        <v>93.75</v>
+        <v>37.084</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>-14.0</v>
+        <v>-10.25</v>
       </c>
       <c r="C29" s="3">
         <v>93.75</v>
@@ -1025,15 +1034,15 @@
         <v>6</v>
       </c>
       <c r="E29" s="2">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>-5.0</v>
+        <v>-14.0</v>
       </c>
       <c r="C30" s="3">
         <v>93.75</v>
@@ -1045,12 +1054,12 @@
         <v>270.0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>-7.25</v>
+        <v>-5.0</v>
       </c>
       <c r="C31" s="3">
         <v>93.75</v>
@@ -1062,32 +1071,32 @@
         <v>270.0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>-6.0</v>
+        <v>-7.25</v>
       </c>
       <c r="C32" s="3">
-        <v>87.0</v>
+        <v>93.75</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="3">
-        <v>-21.844</v>
-      </c>
-      <c r="C33" s="3">
-        <v>93.345</v>
+      <c r="B33" s="5">
+        <v>-4.5</v>
+      </c>
+      <c r="C33" s="5">
+        <v>85.75</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -1096,15 +1105,15 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>-8.25</v>
+        <v>-21.844</v>
       </c>
       <c r="C34" s="3">
-        <v>82.75</v>
+        <v>93.345</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1113,83 +1122,83 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>-17.0</v>
+        <v>-8.25</v>
       </c>
       <c r="C35" s="3">
-        <v>93.75</v>
+        <v>82.75</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="2">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>-8.25</v>
+        <v>-17.0</v>
       </c>
       <c r="C36" s="3">
-        <v>84.75</v>
+        <v>93.75</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>-9.0</v>
+        <v>-8.25</v>
       </c>
       <c r="C37" s="3">
-        <v>87.75</v>
+        <v>84.75</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="2">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>-7.25</v>
+        <v>-9.0</v>
       </c>
       <c r="C38" s="3">
-        <v>28.5</v>
+        <v>87.75</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>-20.75</v>
+        <v>-7.25</v>
       </c>
       <c r="C39" s="3">
-        <v>29.75</v>
+        <v>28.5</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1198,41 +1207,41 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>-10.0</v>
+        <v>-20.75</v>
       </c>
       <c r="C40" s="3">
-        <v>80.0</v>
+        <v>29.75</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>-21.844</v>
+        <v>-10.0</v>
       </c>
       <c r="C41" s="3">
-        <v>89.0</v>
+        <v>80.0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="2">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>-21.844</v>
       </c>
       <c r="C42" s="3">
-        <v>86.75</v>
+        <v>89.0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -1249,32 +1258,32 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>-18.75</v>
+        <v>-21.844</v>
       </c>
       <c r="C43" s="3">
-        <v>29.75</v>
+        <v>86.75</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="2">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>-9.25</v>
+        <v>-18.75</v>
       </c>
       <c r="C44" s="3">
-        <v>28.5</v>
+        <v>29.75</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -1283,15 +1292,15 @@
         <v>270.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>-19.0</v>
+        <v>-9.25</v>
       </c>
       <c r="C45" s="3">
-        <v>89.75</v>
+        <v>28.5</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1300,41 +1309,41 @@
         <v>270.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>-14.75</v>
+        <v>-19.0</v>
       </c>
       <c r="C46" s="3">
-        <v>23.5875</v>
+        <v>89.75</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>-19.75</v>
+        <v>-14.75</v>
       </c>
       <c r="C47" s="3">
-        <v>33.0</v>
+        <v>23.5875</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -1342,33 +1351,33 @@
         <v>-19.75</v>
       </c>
       <c r="C48" s="3">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="2">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>-21.844</v>
+        <v>-19.75</v>
       </c>
       <c r="C49" s="3">
-        <v>91.25</v>
+        <v>35.0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -1376,7 +1385,7 @@
         <v>-21.844</v>
       </c>
       <c r="C50" s="3">
-        <v>95.377</v>
+        <v>91.25</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -1385,29 +1394,29 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>-7.25</v>
+        <v>-21.844</v>
       </c>
       <c r="C51" s="3">
-        <v>66.0</v>
+        <v>95.377</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="2">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>-5.2</v>
+        <v>-7.25</v>
       </c>
       <c r="C52" s="3">
         <v>66.0</v>
@@ -1419,15 +1428,15 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="3">
-        <v>-7.25</v>
+        <v>-5.2</v>
       </c>
       <c r="C53" s="3">
-        <v>47.6625</v>
+        <v>66.0</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -1436,12 +1445,12 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>-5.25</v>
+        <v>-7.25</v>
       </c>
       <c r="C54" s="3">
         <v>47.6625</v>
@@ -1453,24 +1462,24 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>-9.25</v>
+        <v>-5.25</v>
       </c>
       <c r="C55" s="3">
-        <v>66.0</v>
+        <v>47.6625</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="2">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -1478,7 +1487,7 @@
         <v>-9.25</v>
       </c>
       <c r="C56" s="3">
-        <v>47.6625</v>
+        <v>66.0</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -1487,24 +1496,24 @@
         <v>270.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="3">
-        <v>-13.5</v>
+        <v>-9.25</v>
       </c>
       <c r="C57" s="3">
-        <v>68.25</v>
+        <v>47.6625</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -1512,7 +1521,7 @@
         <v>-13.5</v>
       </c>
       <c r="C58" s="3">
-        <v>70.25</v>
+        <v>68.25</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -1521,7 +1530,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>-13.5</v>
       </c>
       <c r="C59" s="3">
-        <v>50.0</v>
+        <v>70.25</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -1538,7 +1547,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -1546,7 +1555,7 @@
         <v>-13.5</v>
       </c>
       <c r="C60" s="3">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -1555,24 +1564,24 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="3">
-        <v>-18.75</v>
+        <v>-13.5</v>
       </c>
       <c r="C61" s="3">
-        <v>66.0</v>
+        <v>52.0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="2">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>-18.75</v>
       </c>
       <c r="C62" s="3">
-        <v>47.75</v>
+        <v>66.0</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
@@ -1589,15 +1598,15 @@
         <v>270.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>-20.75</v>
+        <v>-18.75</v>
       </c>
       <c r="C63" s="3">
-        <v>59.25</v>
+        <v>47.75</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
@@ -1606,75 +1615,75 @@
         <v>270.0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>-23.75</v>
+        <v>-20.75</v>
       </c>
       <c r="C64" s="3">
-        <v>58.15</v>
+        <v>59.25</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="2">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B65" s="3">
-        <v>-20.75</v>
+        <v>-23.75</v>
       </c>
       <c r="C65" s="3">
-        <v>41.0</v>
+        <v>58.15</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="2">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>-24.25</v>
+        <v>-20.75</v>
       </c>
       <c r="C66" s="3">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>-18.75</v>
+        <v>-24.25</v>
       </c>
       <c r="C67" s="3">
-        <v>59.25</v>
+        <v>40.0</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="2">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -1682,7 +1691,7 @@
         <v>-18.75</v>
       </c>
       <c r="C68" s="3">
-        <v>41.0</v>
+        <v>59.25</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
@@ -1691,24 +1700,24 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="3">
-        <v>-14.5</v>
+        <v>-18.75</v>
       </c>
       <c r="C69" s="3">
-        <v>56.75</v>
+        <v>41.0</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="2">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>-14.5</v>
       </c>
       <c r="C70" s="3">
-        <v>54.75</v>
+        <v>56.75</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -1725,15 +1734,15 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B71" s="3">
-        <v>-15.5</v>
+        <v>-14.5</v>
       </c>
       <c r="C71" s="3">
-        <v>38.5</v>
+        <v>54.75</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
@@ -1742,7 +1751,7 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
@@ -1750,7 +1759,7 @@
         <v>-15.5</v>
       </c>
       <c r="C72" s="3">
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
@@ -1759,24 +1768,24 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B73" s="3">
-        <v>-9.25</v>
+        <v>-15.5</v>
       </c>
       <c r="C73" s="3">
-        <v>59.25</v>
+        <v>36.5</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="2">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>78</v>
       </c>
@@ -1784,7 +1793,7 @@
         <v>-9.25</v>
       </c>
       <c r="C74" s="3">
-        <v>41.0</v>
+        <v>59.25</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -1793,15 +1802,15 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B75" s="3">
-        <v>-14.0</v>
+        <v>-9.25</v>
       </c>
       <c r="C75" s="3">
-        <v>62.5</v>
+        <v>41.0</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
@@ -1810,7 +1819,7 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>80</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>-14.0</v>
       </c>
       <c r="C76" s="3">
-        <v>44.25</v>
+        <v>62.5</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
@@ -1827,7 +1836,7 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>81</v>
       </c>
@@ -1835,16 +1844,16 @@
         <v>-14.0</v>
       </c>
       <c r="C77" s="3">
-        <v>88.5</v>
+        <v>44.25</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="2">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>82</v>
       </c>
@@ -1852,7 +1861,7 @@
         <v>-14.0</v>
       </c>
       <c r="C78" s="3">
-        <v>28.5</v>
+        <v>88.5</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
@@ -1861,11 +1870,4627 @@
         <v>270.0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80">
-      <c r="E80" s="4"/>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="3">
+        <v>-14.0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="2">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="A252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="A254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="A258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="A259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="A260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="A261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="A262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="A263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="A264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="A265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="A266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="A267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="A268" s="6"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="A269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="A270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="A271" s="6"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="6"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="A280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="A281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="A282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="A283" s="6"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="6"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="A285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="6"/>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="A287" s="6"/>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="6"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="6"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="6"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="A291" s="6"/>
+      <c r="D291" s="6"/>
+      <c r="E291" s="6"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="A292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="A293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="A295" s="6"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="A296" s="6"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="A299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="A300" s="6"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="A301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="A302" s="6"/>
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="A303" s="6"/>
+      <c r="D303" s="6"/>
+      <c r="E303" s="6"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="A304" s="6"/>
+      <c r="D304" s="6"/>
+      <c r="E304" s="6"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="A305" s="6"/>
+      <c r="D305" s="6"/>
+      <c r="E305" s="6"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="A306" s="6"/>
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="A307" s="6"/>
+      <c r="D307" s="6"/>
+      <c r="E307" s="6"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="A308" s="6"/>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="A309" s="6"/>
+      <c r="D309" s="6"/>
+      <c r="E309" s="6"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="A310" s="6"/>
+      <c r="D310" s="6"/>
+      <c r="E310" s="6"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="A311" s="6"/>
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="A312" s="6"/>
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="A313" s="6"/>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="A314" s="6"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="A315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="A316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="A317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="A318" s="6"/>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="A319" s="6"/>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="A320" s="6"/>
+      <c r="D320" s="6"/>
+      <c r="E320" s="6"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="A321" s="6"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="A322" s="6"/>
+      <c r="D322" s="6"/>
+      <c r="E322" s="6"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="A323" s="6"/>
+      <c r="D323" s="6"/>
+      <c r="E323" s="6"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="6"/>
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="6"/>
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="6"/>
+      <c r="D326" s="6"/>
+      <c r="E326" s="6"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="6"/>
+      <c r="D327" s="6"/>
+      <c r="E327" s="6"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="6"/>
+      <c r="D328" s="6"/>
+      <c r="E328" s="6"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="6"/>
+      <c r="D329" s="6"/>
+      <c r="E329" s="6"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="6"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="6"/>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="A332" s="6"/>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="6"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="A334" s="6"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="A335" s="6"/>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="A336" s="6"/>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="A337" s="6"/>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="A338" s="6"/>
+      <c r="D338" s="6"/>
+      <c r="E338" s="6"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="A339" s="6"/>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="A340" s="6"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="A341" s="6"/>
+      <c r="D341" s="6"/>
+      <c r="E341" s="6"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="A342" s="6"/>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="A343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="A344" s="6"/>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="A345" s="6"/>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="A346" s="6"/>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="A347" s="6"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="A348" s="6"/>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="A349" s="6"/>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="A350" s="6"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="A351" s="6"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="A352" s="6"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="A353" s="6"/>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="A354" s="6"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="A355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="A356" s="6"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="A357" s="6"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="A358" s="6"/>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="A359" s="6"/>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="A360" s="6"/>
+      <c r="D360" s="6"/>
+      <c r="E360" s="6"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="A361" s="6"/>
+      <c r="D361" s="6"/>
+      <c r="E361" s="6"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="A362" s="6"/>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="A363" s="6"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="A364" s="6"/>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="A365" s="6"/>
+      <c r="D365" s="6"/>
+      <c r="E365" s="6"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="A366" s="6"/>
+      <c r="D366" s="6"/>
+      <c r="E366" s="6"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="A367" s="6"/>
+      <c r="D367" s="6"/>
+      <c r="E367" s="6"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="A368" s="6"/>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="A369" s="6"/>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="A370" s="6"/>
+      <c r="D370" s="6"/>
+      <c r="E370" s="6"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="A371" s="6"/>
+      <c r="D371" s="6"/>
+      <c r="E371" s="6"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="A372" s="6"/>
+      <c r="D372" s="6"/>
+      <c r="E372" s="6"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="A373" s="6"/>
+      <c r="D373" s="6"/>
+      <c r="E373" s="6"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="A374" s="6"/>
+      <c r="D374" s="6"/>
+      <c r="E374" s="6"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="A375" s="6"/>
+      <c r="D375" s="6"/>
+      <c r="E375" s="6"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="A376" s="6"/>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="A377" s="6"/>
+      <c r="D377" s="6"/>
+      <c r="E377" s="6"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="A378" s="6"/>
+      <c r="D378" s="6"/>
+      <c r="E378" s="6"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="A379" s="6"/>
+      <c r="D379" s="6"/>
+      <c r="E379" s="6"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="A380" s="6"/>
+      <c r="D380" s="6"/>
+      <c r="E380" s="6"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="A381" s="6"/>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="A382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="A383" s="6"/>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="A384" s="6"/>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="A385" s="6"/>
+      <c r="D385" s="6"/>
+      <c r="E385" s="6"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="A386" s="6"/>
+      <c r="D386" s="6"/>
+      <c r="E386" s="6"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="A387" s="6"/>
+      <c r="D387" s="6"/>
+      <c r="E387" s="6"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="A388" s="6"/>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="A389" s="6"/>
+      <c r="D389" s="6"/>
+      <c r="E389" s="6"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="A390" s="6"/>
+      <c r="D390" s="6"/>
+      <c r="E390" s="6"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="A391" s="6"/>
+      <c r="D391" s="6"/>
+      <c r="E391" s="6"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="A392" s="6"/>
+      <c r="D392" s="6"/>
+      <c r="E392" s="6"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="A393" s="6"/>
+      <c r="D393" s="6"/>
+      <c r="E393" s="6"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="A394" s="6"/>
+      <c r="D394" s="6"/>
+      <c r="E394" s="6"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="A395" s="6"/>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="A396" s="6"/>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="A397" s="6"/>
+      <c r="D397" s="6"/>
+      <c r="E397" s="6"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="A398" s="6"/>
+      <c r="D398" s="6"/>
+      <c r="E398" s="6"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="A399" s="6"/>
+      <c r="D399" s="6"/>
+      <c r="E399" s="6"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="A400" s="6"/>
+      <c r="D400" s="6"/>
+      <c r="E400" s="6"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="A401" s="6"/>
+      <c r="D401" s="6"/>
+      <c r="E401" s="6"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="A402" s="6"/>
+      <c r="D402" s="6"/>
+      <c r="E402" s="6"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="A403" s="6"/>
+      <c r="D403" s="6"/>
+      <c r="E403" s="6"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="A404" s="6"/>
+      <c r="D404" s="6"/>
+      <c r="E404" s="6"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="A405" s="6"/>
+      <c r="D405" s="6"/>
+      <c r="E405" s="6"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="A406" s="6"/>
+      <c r="D406" s="6"/>
+      <c r="E406" s="6"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="A407" s="6"/>
+      <c r="D407" s="6"/>
+      <c r="E407" s="6"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="A408" s="6"/>
+      <c r="D408" s="6"/>
+      <c r="E408" s="6"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="A409" s="6"/>
+      <c r="D409" s="6"/>
+      <c r="E409" s="6"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="A410" s="6"/>
+      <c r="D410" s="6"/>
+      <c r="E410" s="6"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="A411" s="6"/>
+      <c r="D411" s="6"/>
+      <c r="E411" s="6"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="A412" s="6"/>
+      <c r="D412" s="6"/>
+      <c r="E412" s="6"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="A413" s="6"/>
+      <c r="D413" s="6"/>
+      <c r="E413" s="6"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="A414" s="6"/>
+      <c r="D414" s="6"/>
+      <c r="E414" s="6"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="A415" s="6"/>
+      <c r="D415" s="6"/>
+      <c r="E415" s="6"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="A416" s="6"/>
+      <c r="D416" s="6"/>
+      <c r="E416" s="6"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="A417" s="6"/>
+      <c r="D417" s="6"/>
+      <c r="E417" s="6"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="A418" s="6"/>
+      <c r="D418" s="6"/>
+      <c r="E418" s="6"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="A419" s="6"/>
+      <c r="D419" s="6"/>
+      <c r="E419" s="6"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="A420" s="6"/>
+      <c r="D420" s="6"/>
+      <c r="E420" s="6"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="A421" s="6"/>
+      <c r="D421" s="6"/>
+      <c r="E421" s="6"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="A422" s="6"/>
+      <c r="D422" s="6"/>
+      <c r="E422" s="6"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="A423" s="6"/>
+      <c r="D423" s="6"/>
+      <c r="E423" s="6"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="A424" s="6"/>
+      <c r="D424" s="6"/>
+      <c r="E424" s="6"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="A425" s="6"/>
+      <c r="D425" s="6"/>
+      <c r="E425" s="6"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="A426" s="6"/>
+      <c r="D426" s="6"/>
+      <c r="E426" s="6"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="A427" s="6"/>
+      <c r="D427" s="6"/>
+      <c r="E427" s="6"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="A428" s="6"/>
+      <c r="D428" s="6"/>
+      <c r="E428" s="6"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="A429" s="6"/>
+      <c r="D429" s="6"/>
+      <c r="E429" s="6"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="A430" s="6"/>
+      <c r="D430" s="6"/>
+      <c r="E430" s="6"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="A431" s="6"/>
+      <c r="D431" s="6"/>
+      <c r="E431" s="6"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="A432" s="6"/>
+      <c r="D432" s="6"/>
+      <c r="E432" s="6"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="A433" s="6"/>
+      <c r="D433" s="6"/>
+      <c r="E433" s="6"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="A434" s="6"/>
+      <c r="D434" s="6"/>
+      <c r="E434" s="6"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="A435" s="6"/>
+      <c r="D435" s="6"/>
+      <c r="E435" s="6"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="A436" s="6"/>
+      <c r="D436" s="6"/>
+      <c r="E436" s="6"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="A437" s="6"/>
+      <c r="D437" s="6"/>
+      <c r="E437" s="6"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="A438" s="6"/>
+      <c r="D438" s="6"/>
+      <c r="E438" s="6"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="A439" s="6"/>
+      <c r="D439" s="6"/>
+      <c r="E439" s="6"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="A440" s="6"/>
+      <c r="D440" s="6"/>
+      <c r="E440" s="6"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="A441" s="6"/>
+      <c r="D441" s="6"/>
+      <c r="E441" s="6"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="A442" s="6"/>
+      <c r="D442" s="6"/>
+      <c r="E442" s="6"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="A443" s="6"/>
+      <c r="D443" s="6"/>
+      <c r="E443" s="6"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="A444" s="6"/>
+      <c r="D444" s="6"/>
+      <c r="E444" s="6"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="A445" s="6"/>
+      <c r="D445" s="6"/>
+      <c r="E445" s="6"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="A446" s="6"/>
+      <c r="D446" s="6"/>
+      <c r="E446" s="6"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="A447" s="6"/>
+      <c r="D447" s="6"/>
+      <c r="E447" s="6"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="A448" s="6"/>
+      <c r="D448" s="6"/>
+      <c r="E448" s="6"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="A449" s="6"/>
+      <c r="D449" s="6"/>
+      <c r="E449" s="6"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="A450" s="6"/>
+      <c r="D450" s="6"/>
+      <c r="E450" s="6"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="A451" s="6"/>
+      <c r="D451" s="6"/>
+      <c r="E451" s="6"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="A452" s="6"/>
+      <c r="D452" s="6"/>
+      <c r="E452" s="6"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="A453" s="6"/>
+      <c r="D453" s="6"/>
+      <c r="E453" s="6"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="A454" s="6"/>
+      <c r="D454" s="6"/>
+      <c r="E454" s="6"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="A455" s="6"/>
+      <c r="D455" s="6"/>
+      <c r="E455" s="6"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="A456" s="6"/>
+      <c r="D456" s="6"/>
+      <c r="E456" s="6"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="A457" s="6"/>
+      <c r="D457" s="6"/>
+      <c r="E457" s="6"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="A458" s="6"/>
+      <c r="D458" s="6"/>
+      <c r="E458" s="6"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="A459" s="6"/>
+      <c r="D459" s="6"/>
+      <c r="E459" s="6"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="A460" s="6"/>
+      <c r="D460" s="6"/>
+      <c r="E460" s="6"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="A461" s="6"/>
+      <c r="D461" s="6"/>
+      <c r="E461" s="6"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="A462" s="6"/>
+      <c r="D462" s="6"/>
+      <c r="E462" s="6"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="A463" s="6"/>
+      <c r="D463" s="6"/>
+      <c r="E463" s="6"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="A464" s="6"/>
+      <c r="D464" s="6"/>
+      <c r="E464" s="6"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="A465" s="6"/>
+      <c r="D465" s="6"/>
+      <c r="E465" s="6"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="A466" s="6"/>
+      <c r="D466" s="6"/>
+      <c r="E466" s="6"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="A467" s="6"/>
+      <c r="D467" s="6"/>
+      <c r="E467" s="6"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="A468" s="6"/>
+      <c r="D468" s="6"/>
+      <c r="E468" s="6"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="A469" s="6"/>
+      <c r="D469" s="6"/>
+      <c r="E469" s="6"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="A470" s="6"/>
+      <c r="D470" s="6"/>
+      <c r="E470" s="6"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="A471" s="6"/>
+      <c r="D471" s="6"/>
+      <c r="E471" s="6"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="A472" s="6"/>
+      <c r="D472" s="6"/>
+      <c r="E472" s="6"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="A473" s="6"/>
+      <c r="D473" s="6"/>
+      <c r="E473" s="6"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="A474" s="6"/>
+      <c r="D474" s="6"/>
+      <c r="E474" s="6"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="A475" s="6"/>
+      <c r="D475" s="6"/>
+      <c r="E475" s="6"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="A476" s="6"/>
+      <c r="D476" s="6"/>
+      <c r="E476" s="6"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="A477" s="6"/>
+      <c r="D477" s="6"/>
+      <c r="E477" s="6"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="A478" s="6"/>
+      <c r="D478" s="6"/>
+      <c r="E478" s="6"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="A479" s="6"/>
+      <c r="D479" s="6"/>
+      <c r="E479" s="6"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="A480" s="6"/>
+      <c r="D480" s="6"/>
+      <c r="E480" s="6"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="A481" s="6"/>
+      <c r="D481" s="6"/>
+      <c r="E481" s="6"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="A482" s="6"/>
+      <c r="D482" s="6"/>
+      <c r="E482" s="6"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="A483" s="6"/>
+      <c r="D483" s="6"/>
+      <c r="E483" s="6"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="A484" s="6"/>
+      <c r="D484" s="6"/>
+      <c r="E484" s="6"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="A485" s="6"/>
+      <c r="D485" s="6"/>
+      <c r="E485" s="6"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="A486" s="6"/>
+      <c r="D486" s="6"/>
+      <c r="E486" s="6"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="A487" s="6"/>
+      <c r="D487" s="6"/>
+      <c r="E487" s="6"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="A488" s="6"/>
+      <c r="D488" s="6"/>
+      <c r="E488" s="6"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="A489" s="6"/>
+      <c r="D489" s="6"/>
+      <c r="E489" s="6"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="A490" s="6"/>
+      <c r="D490" s="6"/>
+      <c r="E490" s="6"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="A491" s="6"/>
+      <c r="D491" s="6"/>
+      <c r="E491" s="6"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="A492" s="6"/>
+      <c r="D492" s="6"/>
+      <c r="E492" s="6"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="A493" s="6"/>
+      <c r="D493" s="6"/>
+      <c r="E493" s="6"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="A494" s="6"/>
+      <c r="D494" s="6"/>
+      <c r="E494" s="6"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="A495" s="6"/>
+      <c r="D495" s="6"/>
+      <c r="E495" s="6"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="A496" s="6"/>
+      <c r="D496" s="6"/>
+      <c r="E496" s="6"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="A497" s="6"/>
+      <c r="D497" s="6"/>
+      <c r="E497" s="6"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="A498" s="6"/>
+      <c r="D498" s="6"/>
+      <c r="E498" s="6"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="A499" s="6"/>
+      <c r="D499" s="6"/>
+      <c r="E499" s="6"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="A500" s="6"/>
+      <c r="D500" s="6"/>
+      <c r="E500" s="6"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="A501" s="6"/>
+      <c r="D501" s="6"/>
+      <c r="E501" s="6"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="A502" s="6"/>
+      <c r="D502" s="6"/>
+      <c r="E502" s="6"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="A503" s="6"/>
+      <c r="D503" s="6"/>
+      <c r="E503" s="6"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="A504" s="6"/>
+      <c r="D504" s="6"/>
+      <c r="E504" s="6"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="A505" s="6"/>
+      <c r="D505" s="6"/>
+      <c r="E505" s="6"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="A506" s="6"/>
+      <c r="D506" s="6"/>
+      <c r="E506" s="6"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="A507" s="6"/>
+      <c r="D507" s="6"/>
+      <c r="E507" s="6"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="A508" s="6"/>
+      <c r="D508" s="6"/>
+      <c r="E508" s="6"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="A509" s="6"/>
+      <c r="D509" s="6"/>
+      <c r="E509" s="6"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="A510" s="6"/>
+      <c r="D510" s="6"/>
+      <c r="E510" s="6"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="A511" s="6"/>
+      <c r="D511" s="6"/>
+      <c r="E511" s="6"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="A512" s="6"/>
+      <c r="D512" s="6"/>
+      <c r="E512" s="6"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="A513" s="6"/>
+      <c r="D513" s="6"/>
+      <c r="E513" s="6"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="A514" s="6"/>
+      <c r="D514" s="6"/>
+      <c r="E514" s="6"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="A515" s="6"/>
+      <c r="D515" s="6"/>
+      <c r="E515" s="6"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="A516" s="6"/>
+      <c r="D516" s="6"/>
+      <c r="E516" s="6"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="A517" s="6"/>
+      <c r="D517" s="6"/>
+      <c r="E517" s="6"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="A518" s="6"/>
+      <c r="D518" s="6"/>
+      <c r="E518" s="6"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="A519" s="6"/>
+      <c r="D519" s="6"/>
+      <c r="E519" s="6"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="A520" s="6"/>
+      <c r="D520" s="6"/>
+      <c r="E520" s="6"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="A521" s="6"/>
+      <c r="D521" s="6"/>
+      <c r="E521" s="6"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="A522" s="6"/>
+      <c r="D522" s="6"/>
+      <c r="E522" s="6"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="A523" s="6"/>
+      <c r="D523" s="6"/>
+      <c r="E523" s="6"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="A524" s="6"/>
+      <c r="D524" s="6"/>
+      <c r="E524" s="6"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="A525" s="6"/>
+      <c r="D525" s="6"/>
+      <c r="E525" s="6"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="A526" s="6"/>
+      <c r="D526" s="6"/>
+      <c r="E526" s="6"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="A527" s="6"/>
+      <c r="D527" s="6"/>
+      <c r="E527" s="6"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="A528" s="6"/>
+      <c r="D528" s="6"/>
+      <c r="E528" s="6"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="A529" s="6"/>
+      <c r="D529" s="6"/>
+      <c r="E529" s="6"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="A530" s="6"/>
+      <c r="D530" s="6"/>
+      <c r="E530" s="6"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="A531" s="6"/>
+      <c r="D531" s="6"/>
+      <c r="E531" s="6"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="A532" s="6"/>
+      <c r="D532" s="6"/>
+      <c r="E532" s="6"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="A533" s="6"/>
+      <c r="D533" s="6"/>
+      <c r="E533" s="6"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="A534" s="6"/>
+      <c r="D534" s="6"/>
+      <c r="E534" s="6"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="A535" s="6"/>
+      <c r="D535" s="6"/>
+      <c r="E535" s="6"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="A536" s="6"/>
+      <c r="D536" s="6"/>
+      <c r="E536" s="6"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="A537" s="6"/>
+      <c r="D537" s="6"/>
+      <c r="E537" s="6"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="A538" s="6"/>
+      <c r="D538" s="6"/>
+      <c r="E538" s="6"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="A539" s="6"/>
+      <c r="D539" s="6"/>
+      <c r="E539" s="6"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="A540" s="6"/>
+      <c r="D540" s="6"/>
+      <c r="E540" s="6"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="A541" s="6"/>
+      <c r="D541" s="6"/>
+      <c r="E541" s="6"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="A542" s="6"/>
+      <c r="D542" s="6"/>
+      <c r="E542" s="6"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="A543" s="6"/>
+      <c r="D543" s="6"/>
+      <c r="E543" s="6"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="A544" s="6"/>
+      <c r="D544" s="6"/>
+      <c r="E544" s="6"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="A545" s="6"/>
+      <c r="D545" s="6"/>
+      <c r="E545" s="6"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="A546" s="6"/>
+      <c r="D546" s="6"/>
+      <c r="E546" s="6"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="A547" s="6"/>
+      <c r="D547" s="6"/>
+      <c r="E547" s="6"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="A548" s="6"/>
+      <c r="D548" s="6"/>
+      <c r="E548" s="6"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="A549" s="6"/>
+      <c r="D549" s="6"/>
+      <c r="E549" s="6"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="A550" s="6"/>
+      <c r="D550" s="6"/>
+      <c r="E550" s="6"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="A551" s="6"/>
+      <c r="D551" s="6"/>
+      <c r="E551" s="6"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="A552" s="6"/>
+      <c r="D552" s="6"/>
+      <c r="E552" s="6"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="A553" s="6"/>
+      <c r="D553" s="6"/>
+      <c r="E553" s="6"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="A554" s="6"/>
+      <c r="D554" s="6"/>
+      <c r="E554" s="6"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="A555" s="6"/>
+      <c r="D555" s="6"/>
+      <c r="E555" s="6"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="A556" s="6"/>
+      <c r="D556" s="6"/>
+      <c r="E556" s="6"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="A557" s="6"/>
+      <c r="D557" s="6"/>
+      <c r="E557" s="6"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="A558" s="6"/>
+      <c r="D558" s="6"/>
+      <c r="E558" s="6"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="A559" s="6"/>
+      <c r="D559" s="6"/>
+      <c r="E559" s="6"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="A560" s="6"/>
+      <c r="D560" s="6"/>
+      <c r="E560" s="6"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="A561" s="6"/>
+      <c r="D561" s="6"/>
+      <c r="E561" s="6"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="A562" s="6"/>
+      <c r="D562" s="6"/>
+      <c r="E562" s="6"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="A563" s="6"/>
+      <c r="D563" s="6"/>
+      <c r="E563" s="6"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="A564" s="6"/>
+      <c r="D564" s="6"/>
+      <c r="E564" s="6"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="A565" s="6"/>
+      <c r="D565" s="6"/>
+      <c r="E565" s="6"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="A566" s="6"/>
+      <c r="D566" s="6"/>
+      <c r="E566" s="6"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="A567" s="6"/>
+      <c r="D567" s="6"/>
+      <c r="E567" s="6"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="A568" s="6"/>
+      <c r="D568" s="6"/>
+      <c r="E568" s="6"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="A569" s="6"/>
+      <c r="D569" s="6"/>
+      <c r="E569" s="6"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="A570" s="6"/>
+      <c r="D570" s="6"/>
+      <c r="E570" s="6"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="A571" s="6"/>
+      <c r="D571" s="6"/>
+      <c r="E571" s="6"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="A572" s="6"/>
+      <c r="D572" s="6"/>
+      <c r="E572" s="6"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="A573" s="6"/>
+      <c r="D573" s="6"/>
+      <c r="E573" s="6"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="A574" s="6"/>
+      <c r="D574" s="6"/>
+      <c r="E574" s="6"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="A575" s="6"/>
+      <c r="D575" s="6"/>
+      <c r="E575" s="6"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="A576" s="6"/>
+      <c r="D576" s="6"/>
+      <c r="E576" s="6"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="A577" s="6"/>
+      <c r="D577" s="6"/>
+      <c r="E577" s="6"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="A578" s="6"/>
+      <c r="D578" s="6"/>
+      <c r="E578" s="6"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="A579" s="6"/>
+      <c r="D579" s="6"/>
+      <c r="E579" s="6"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="A580" s="6"/>
+      <c r="D580" s="6"/>
+      <c r="E580" s="6"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="A581" s="6"/>
+      <c r="D581" s="6"/>
+      <c r="E581" s="6"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="A582" s="6"/>
+      <c r="D582" s="6"/>
+      <c r="E582" s="6"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="A583" s="6"/>
+      <c r="D583" s="6"/>
+      <c r="E583" s="6"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="A584" s="6"/>
+      <c r="D584" s="6"/>
+      <c r="E584" s="6"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="A585" s="6"/>
+      <c r="D585" s="6"/>
+      <c r="E585" s="6"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="A586" s="6"/>
+      <c r="D586" s="6"/>
+      <c r="E586" s="6"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="A587" s="6"/>
+      <c r="D587" s="6"/>
+      <c r="E587" s="6"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="A588" s="6"/>
+      <c r="D588" s="6"/>
+      <c r="E588" s="6"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="A589" s="6"/>
+      <c r="D589" s="6"/>
+      <c r="E589" s="6"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="A590" s="6"/>
+      <c r="D590" s="6"/>
+      <c r="E590" s="6"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="A591" s="6"/>
+      <c r="D591" s="6"/>
+      <c r="E591" s="6"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="A592" s="6"/>
+      <c r="D592" s="6"/>
+      <c r="E592" s="6"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="A593" s="6"/>
+      <c r="D593" s="6"/>
+      <c r="E593" s="6"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="A594" s="6"/>
+      <c r="D594" s="6"/>
+      <c r="E594" s="6"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="A595" s="6"/>
+      <c r="D595" s="6"/>
+      <c r="E595" s="6"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="A596" s="6"/>
+      <c r="D596" s="6"/>
+      <c r="E596" s="6"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="A597" s="6"/>
+      <c r="D597" s="6"/>
+      <c r="E597" s="6"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="A598" s="6"/>
+      <c r="D598" s="6"/>
+      <c r="E598" s="6"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="A599" s="6"/>
+      <c r="D599" s="6"/>
+      <c r="E599" s="6"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="A600" s="6"/>
+      <c r="D600" s="6"/>
+      <c r="E600" s="6"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="A601" s="6"/>
+      <c r="D601" s="6"/>
+      <c r="E601" s="6"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="A602" s="6"/>
+      <c r="D602" s="6"/>
+      <c r="E602" s="6"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="A603" s="6"/>
+      <c r="D603" s="6"/>
+      <c r="E603" s="6"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="A604" s="6"/>
+      <c r="D604" s="6"/>
+      <c r="E604" s="6"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="A605" s="6"/>
+      <c r="D605" s="6"/>
+      <c r="E605" s="6"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="A606" s="6"/>
+      <c r="D606" s="6"/>
+      <c r="E606" s="6"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="A607" s="6"/>
+      <c r="D607" s="6"/>
+      <c r="E607" s="6"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="A608" s="6"/>
+      <c r="D608" s="6"/>
+      <c r="E608" s="6"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="A609" s="6"/>
+      <c r="D609" s="6"/>
+      <c r="E609" s="6"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="A610" s="6"/>
+      <c r="D610" s="6"/>
+      <c r="E610" s="6"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="A611" s="6"/>
+      <c r="D611" s="6"/>
+      <c r="E611" s="6"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="A612" s="6"/>
+      <c r="D612" s="6"/>
+      <c r="E612" s="6"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="A613" s="6"/>
+      <c r="D613" s="6"/>
+      <c r="E613" s="6"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="A614" s="6"/>
+      <c r="D614" s="6"/>
+      <c r="E614" s="6"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="A615" s="6"/>
+      <c r="D615" s="6"/>
+      <c r="E615" s="6"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="A616" s="6"/>
+      <c r="D616" s="6"/>
+      <c r="E616" s="6"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="A617" s="6"/>
+      <c r="D617" s="6"/>
+      <c r="E617" s="6"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="A618" s="6"/>
+      <c r="D618" s="6"/>
+      <c r="E618" s="6"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="A619" s="6"/>
+      <c r="D619" s="6"/>
+      <c r="E619" s="6"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="A620" s="6"/>
+      <c r="D620" s="6"/>
+      <c r="E620" s="6"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="A621" s="6"/>
+      <c r="D621" s="6"/>
+      <c r="E621" s="6"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="A622" s="6"/>
+      <c r="D622" s="6"/>
+      <c r="E622" s="6"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="A623" s="6"/>
+      <c r="D623" s="6"/>
+      <c r="E623" s="6"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="A624" s="6"/>
+      <c r="D624" s="6"/>
+      <c r="E624" s="6"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="A625" s="6"/>
+      <c r="D625" s="6"/>
+      <c r="E625" s="6"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="A626" s="6"/>
+      <c r="D626" s="6"/>
+      <c r="E626" s="6"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="A627" s="6"/>
+      <c r="D627" s="6"/>
+      <c r="E627" s="6"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="A628" s="6"/>
+      <c r="D628" s="6"/>
+      <c r="E628" s="6"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="A629" s="6"/>
+      <c r="D629" s="6"/>
+      <c r="E629" s="6"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="A630" s="6"/>
+      <c r="D630" s="6"/>
+      <c r="E630" s="6"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="A631" s="6"/>
+      <c r="D631" s="6"/>
+      <c r="E631" s="6"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="A632" s="6"/>
+      <c r="D632" s="6"/>
+      <c r="E632" s="6"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="A633" s="6"/>
+      <c r="D633" s="6"/>
+      <c r="E633" s="6"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="A634" s="6"/>
+      <c r="D634" s="6"/>
+      <c r="E634" s="6"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="A635" s="6"/>
+      <c r="D635" s="6"/>
+      <c r="E635" s="6"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="A636" s="6"/>
+      <c r="D636" s="6"/>
+      <c r="E636" s="6"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="A637" s="6"/>
+      <c r="D637" s="6"/>
+      <c r="E637" s="6"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="A638" s="6"/>
+      <c r="D638" s="6"/>
+      <c r="E638" s="6"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="A639" s="6"/>
+      <c r="D639" s="6"/>
+      <c r="E639" s="6"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="A640" s="6"/>
+      <c r="D640" s="6"/>
+      <c r="E640" s="6"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="A641" s="6"/>
+      <c r="D641" s="6"/>
+      <c r="E641" s="6"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="A642" s="6"/>
+      <c r="D642" s="6"/>
+      <c r="E642" s="6"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="A643" s="6"/>
+      <c r="D643" s="6"/>
+      <c r="E643" s="6"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="A644" s="6"/>
+      <c r="D644" s="6"/>
+      <c r="E644" s="6"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="A645" s="6"/>
+      <c r="D645" s="6"/>
+      <c r="E645" s="6"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="A646" s="6"/>
+      <c r="D646" s="6"/>
+      <c r="E646" s="6"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="A647" s="6"/>
+      <c r="D647" s="6"/>
+      <c r="E647" s="6"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="A648" s="6"/>
+      <c r="D648" s="6"/>
+      <c r="E648" s="6"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="A649" s="6"/>
+      <c r="D649" s="6"/>
+      <c r="E649" s="6"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="A650" s="6"/>
+      <c r="D650" s="6"/>
+      <c r="E650" s="6"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="A651" s="6"/>
+      <c r="D651" s="6"/>
+      <c r="E651" s="6"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="A652" s="6"/>
+      <c r="D652" s="6"/>
+      <c r="E652" s="6"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="A653" s="6"/>
+      <c r="D653" s="6"/>
+      <c r="E653" s="6"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="A654" s="6"/>
+      <c r="D654" s="6"/>
+      <c r="E654" s="6"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="A655" s="6"/>
+      <c r="D655" s="6"/>
+      <c r="E655" s="6"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="A656" s="6"/>
+      <c r="D656" s="6"/>
+      <c r="E656" s="6"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="A657" s="6"/>
+      <c r="D657" s="6"/>
+      <c r="E657" s="6"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="A658" s="6"/>
+      <c r="D658" s="6"/>
+      <c r="E658" s="6"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="A659" s="6"/>
+      <c r="D659" s="6"/>
+      <c r="E659" s="6"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="A660" s="6"/>
+      <c r="D660" s="6"/>
+      <c r="E660" s="6"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="A661" s="6"/>
+      <c r="D661" s="6"/>
+      <c r="E661" s="6"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="A662" s="6"/>
+      <c r="D662" s="6"/>
+      <c r="E662" s="6"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="A663" s="6"/>
+      <c r="D663" s="6"/>
+      <c r="E663" s="6"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="A664" s="6"/>
+      <c r="D664" s="6"/>
+      <c r="E664" s="6"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="A665" s="6"/>
+      <c r="D665" s="6"/>
+      <c r="E665" s="6"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="A666" s="6"/>
+      <c r="D666" s="6"/>
+      <c r="E666" s="6"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="A667" s="6"/>
+      <c r="D667" s="6"/>
+      <c r="E667" s="6"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="A668" s="6"/>
+      <c r="D668" s="6"/>
+      <c r="E668" s="6"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="A669" s="6"/>
+      <c r="D669" s="6"/>
+      <c r="E669" s="6"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="A670" s="6"/>
+      <c r="D670" s="6"/>
+      <c r="E670" s="6"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="A671" s="6"/>
+      <c r="D671" s="6"/>
+      <c r="E671" s="6"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="A672" s="6"/>
+      <c r="D672" s="6"/>
+      <c r="E672" s="6"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="A673" s="6"/>
+      <c r="D673" s="6"/>
+      <c r="E673" s="6"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="A674" s="6"/>
+      <c r="D674" s="6"/>
+      <c r="E674" s="6"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="A675" s="6"/>
+      <c r="D675" s="6"/>
+      <c r="E675" s="6"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="A676" s="6"/>
+      <c r="D676" s="6"/>
+      <c r="E676" s="6"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="A677" s="6"/>
+      <c r="D677" s="6"/>
+      <c r="E677" s="6"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="A678" s="6"/>
+      <c r="D678" s="6"/>
+      <c r="E678" s="6"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="A679" s="6"/>
+      <c r="D679" s="6"/>
+      <c r="E679" s="6"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="A680" s="6"/>
+      <c r="D680" s="6"/>
+      <c r="E680" s="6"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="A681" s="6"/>
+      <c r="D681" s="6"/>
+      <c r="E681" s="6"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="A682" s="6"/>
+      <c r="D682" s="6"/>
+      <c r="E682" s="6"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="A683" s="6"/>
+      <c r="D683" s="6"/>
+      <c r="E683" s="6"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="A684" s="6"/>
+      <c r="D684" s="6"/>
+      <c r="E684" s="6"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="A685" s="6"/>
+      <c r="D685" s="6"/>
+      <c r="E685" s="6"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="A686" s="6"/>
+      <c r="D686" s="6"/>
+      <c r="E686" s="6"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="A687" s="6"/>
+      <c r="D687" s="6"/>
+      <c r="E687" s="6"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="A688" s="6"/>
+      <c r="D688" s="6"/>
+      <c r="E688" s="6"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="A689" s="6"/>
+      <c r="D689" s="6"/>
+      <c r="E689" s="6"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="A690" s="6"/>
+      <c r="D690" s="6"/>
+      <c r="E690" s="6"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="A691" s="6"/>
+      <c r="D691" s="6"/>
+      <c r="E691" s="6"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="A692" s="6"/>
+      <c r="D692" s="6"/>
+      <c r="E692" s="6"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="A693" s="6"/>
+      <c r="D693" s="6"/>
+      <c r="E693" s="6"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="A694" s="6"/>
+      <c r="D694" s="6"/>
+      <c r="E694" s="6"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="A695" s="6"/>
+      <c r="D695" s="6"/>
+      <c r="E695" s="6"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="A696" s="6"/>
+      <c r="D696" s="6"/>
+      <c r="E696" s="6"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="A697" s="6"/>
+      <c r="D697" s="6"/>
+      <c r="E697" s="6"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="A698" s="6"/>
+      <c r="D698" s="6"/>
+      <c r="E698" s="6"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="A699" s="6"/>
+      <c r="D699" s="6"/>
+      <c r="E699" s="6"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="A700" s="6"/>
+      <c r="D700" s="6"/>
+      <c r="E700" s="6"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="A701" s="6"/>
+      <c r="D701" s="6"/>
+      <c r="E701" s="6"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="A702" s="6"/>
+      <c r="D702" s="6"/>
+      <c r="E702" s="6"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="A703" s="6"/>
+      <c r="D703" s="6"/>
+      <c r="E703" s="6"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="A704" s="6"/>
+      <c r="D704" s="6"/>
+      <c r="E704" s="6"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="A705" s="6"/>
+      <c r="D705" s="6"/>
+      <c r="E705" s="6"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="A706" s="6"/>
+      <c r="D706" s="6"/>
+      <c r="E706" s="6"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="A707" s="6"/>
+      <c r="D707" s="6"/>
+      <c r="E707" s="6"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="A708" s="6"/>
+      <c r="D708" s="6"/>
+      <c r="E708" s="6"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="A709" s="6"/>
+      <c r="D709" s="6"/>
+      <c r="E709" s="6"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="A710" s="6"/>
+      <c r="D710" s="6"/>
+      <c r="E710" s="6"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="A711" s="6"/>
+      <c r="D711" s="6"/>
+      <c r="E711" s="6"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="A712" s="6"/>
+      <c r="D712" s="6"/>
+      <c r="E712" s="6"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="A713" s="6"/>
+      <c r="D713" s="6"/>
+      <c r="E713" s="6"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="A714" s="6"/>
+      <c r="D714" s="6"/>
+      <c r="E714" s="6"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="A715" s="6"/>
+      <c r="D715" s="6"/>
+      <c r="E715" s="6"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="A716" s="6"/>
+      <c r="D716" s="6"/>
+      <c r="E716" s="6"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="A717" s="6"/>
+      <c r="D717" s="6"/>
+      <c r="E717" s="6"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="A718" s="6"/>
+      <c r="D718" s="6"/>
+      <c r="E718" s="6"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="A719" s="6"/>
+      <c r="D719" s="6"/>
+      <c r="E719" s="6"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="A720" s="6"/>
+      <c r="D720" s="6"/>
+      <c r="E720" s="6"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="A721" s="6"/>
+      <c r="D721" s="6"/>
+      <c r="E721" s="6"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="A722" s="6"/>
+      <c r="D722" s="6"/>
+      <c r="E722" s="6"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="A723" s="6"/>
+      <c r="D723" s="6"/>
+      <c r="E723" s="6"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="A724" s="6"/>
+      <c r="D724" s="6"/>
+      <c r="E724" s="6"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="A725" s="6"/>
+      <c r="D725" s="6"/>
+      <c r="E725" s="6"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="A726" s="6"/>
+      <c r="D726" s="6"/>
+      <c r="E726" s="6"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="A727" s="6"/>
+      <c r="D727" s="6"/>
+      <c r="E727" s="6"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="A728" s="6"/>
+      <c r="D728" s="6"/>
+      <c r="E728" s="6"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="A729" s="6"/>
+      <c r="D729" s="6"/>
+      <c r="E729" s="6"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="A730" s="6"/>
+      <c r="D730" s="6"/>
+      <c r="E730" s="6"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="A731" s="6"/>
+      <c r="D731" s="6"/>
+      <c r="E731" s="6"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="A732" s="6"/>
+      <c r="D732" s="6"/>
+      <c r="E732" s="6"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="A733" s="6"/>
+      <c r="D733" s="6"/>
+      <c r="E733" s="6"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="A734" s="6"/>
+      <c r="D734" s="6"/>
+      <c r="E734" s="6"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="A735" s="6"/>
+      <c r="D735" s="6"/>
+      <c r="E735" s="6"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="A736" s="6"/>
+      <c r="D736" s="6"/>
+      <c r="E736" s="6"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="A737" s="6"/>
+      <c r="D737" s="6"/>
+      <c r="E737" s="6"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="A738" s="6"/>
+      <c r="D738" s="6"/>
+      <c r="E738" s="6"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="A739" s="6"/>
+      <c r="D739" s="6"/>
+      <c r="E739" s="6"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="A740" s="6"/>
+      <c r="D740" s="6"/>
+      <c r="E740" s="6"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="A741" s="6"/>
+      <c r="D741" s="6"/>
+      <c r="E741" s="6"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="A742" s="6"/>
+      <c r="D742" s="6"/>
+      <c r="E742" s="6"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="A743" s="6"/>
+      <c r="D743" s="6"/>
+      <c r="E743" s="6"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="A744" s="6"/>
+      <c r="D744" s="6"/>
+      <c r="E744" s="6"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="A745" s="6"/>
+      <c r="D745" s="6"/>
+      <c r="E745" s="6"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="A746" s="6"/>
+      <c r="D746" s="6"/>
+      <c r="E746" s="6"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="A747" s="6"/>
+      <c r="D747" s="6"/>
+      <c r="E747" s="6"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="A748" s="6"/>
+      <c r="D748" s="6"/>
+      <c r="E748" s="6"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="A749" s="6"/>
+      <c r="D749" s="6"/>
+      <c r="E749" s="6"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="A750" s="6"/>
+      <c r="D750" s="6"/>
+      <c r="E750" s="6"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="A751" s="6"/>
+      <c r="D751" s="6"/>
+      <c r="E751" s="6"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="A752" s="6"/>
+      <c r="D752" s="6"/>
+      <c r="E752" s="6"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="A753" s="6"/>
+      <c r="D753" s="6"/>
+      <c r="E753" s="6"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="A754" s="6"/>
+      <c r="D754" s="6"/>
+      <c r="E754" s="6"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="A755" s="6"/>
+      <c r="D755" s="6"/>
+      <c r="E755" s="6"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="A756" s="6"/>
+      <c r="D756" s="6"/>
+      <c r="E756" s="6"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="A757" s="6"/>
+      <c r="D757" s="6"/>
+      <c r="E757" s="6"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="A758" s="6"/>
+      <c r="D758" s="6"/>
+      <c r="E758" s="6"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="A759" s="6"/>
+      <c r="D759" s="6"/>
+      <c r="E759" s="6"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="A760" s="6"/>
+      <c r="D760" s="6"/>
+      <c r="E760" s="6"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="A761" s="6"/>
+      <c r="D761" s="6"/>
+      <c r="E761" s="6"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="A762" s="6"/>
+      <c r="D762" s="6"/>
+      <c r="E762" s="6"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="A763" s="6"/>
+      <c r="D763" s="6"/>
+      <c r="E763" s="6"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="A764" s="6"/>
+      <c r="D764" s="6"/>
+      <c r="E764" s="6"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="A765" s="6"/>
+      <c r="D765" s="6"/>
+      <c r="E765" s="6"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="A766" s="6"/>
+      <c r="D766" s="6"/>
+      <c r="E766" s="6"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="A767" s="6"/>
+      <c r="D767" s="6"/>
+      <c r="E767" s="6"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="A768" s="6"/>
+      <c r="D768" s="6"/>
+      <c r="E768" s="6"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="A769" s="6"/>
+      <c r="D769" s="6"/>
+      <c r="E769" s="6"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="A770" s="6"/>
+      <c r="D770" s="6"/>
+      <c r="E770" s="6"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="A771" s="6"/>
+      <c r="D771" s="6"/>
+      <c r="E771" s="6"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="A772" s="6"/>
+      <c r="D772" s="6"/>
+      <c r="E772" s="6"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="A773" s="6"/>
+      <c r="D773" s="6"/>
+      <c r="E773" s="6"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="A774" s="6"/>
+      <c r="D774" s="6"/>
+      <c r="E774" s="6"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="A775" s="6"/>
+      <c r="D775" s="6"/>
+      <c r="E775" s="6"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="A776" s="6"/>
+      <c r="D776" s="6"/>
+      <c r="E776" s="6"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="A777" s="6"/>
+      <c r="D777" s="6"/>
+      <c r="E777" s="6"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="A778" s="6"/>
+      <c r="D778" s="6"/>
+      <c r="E778" s="6"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="A779" s="6"/>
+      <c r="D779" s="6"/>
+      <c r="E779" s="6"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="A780" s="6"/>
+      <c r="D780" s="6"/>
+      <c r="E780" s="6"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="A781" s="6"/>
+      <c r="D781" s="6"/>
+      <c r="E781" s="6"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="A782" s="6"/>
+      <c r="D782" s="6"/>
+      <c r="E782" s="6"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="A783" s="6"/>
+      <c r="D783" s="6"/>
+      <c r="E783" s="6"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="A784" s="6"/>
+      <c r="D784" s="6"/>
+      <c r="E784" s="6"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="A785" s="6"/>
+      <c r="D785" s="6"/>
+      <c r="E785" s="6"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="A786" s="6"/>
+      <c r="D786" s="6"/>
+      <c r="E786" s="6"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="A787" s="6"/>
+      <c r="D787" s="6"/>
+      <c r="E787" s="6"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="A788" s="6"/>
+      <c r="D788" s="6"/>
+      <c r="E788" s="6"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="A789" s="6"/>
+      <c r="D789" s="6"/>
+      <c r="E789" s="6"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="A790" s="6"/>
+      <c r="D790" s="6"/>
+      <c r="E790" s="6"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="A791" s="6"/>
+      <c r="D791" s="6"/>
+      <c r="E791" s="6"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="A792" s="6"/>
+      <c r="D792" s="6"/>
+      <c r="E792" s="6"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="A793" s="6"/>
+      <c r="D793" s="6"/>
+      <c r="E793" s="6"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="A794" s="6"/>
+      <c r="D794" s="6"/>
+      <c r="E794" s="6"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="A795" s="6"/>
+      <c r="D795" s="6"/>
+      <c r="E795" s="6"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="A796" s="6"/>
+      <c r="D796" s="6"/>
+      <c r="E796" s="6"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="A797" s="6"/>
+      <c r="D797" s="6"/>
+      <c r="E797" s="6"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="A798" s="6"/>
+      <c r="D798" s="6"/>
+      <c r="E798" s="6"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="A799" s="6"/>
+      <c r="D799" s="6"/>
+      <c r="E799" s="6"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="A800" s="6"/>
+      <c r="D800" s="6"/>
+      <c r="E800" s="6"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="A801" s="6"/>
+      <c r="D801" s="6"/>
+      <c r="E801" s="6"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="A802" s="6"/>
+      <c r="D802" s="6"/>
+      <c r="E802" s="6"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="A803" s="6"/>
+      <c r="D803" s="6"/>
+      <c r="E803" s="6"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="A804" s="6"/>
+      <c r="D804" s="6"/>
+      <c r="E804" s="6"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="A805" s="6"/>
+      <c r="D805" s="6"/>
+      <c r="E805" s="6"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="A806" s="6"/>
+      <c r="D806" s="6"/>
+      <c r="E806" s="6"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="A807" s="6"/>
+      <c r="D807" s="6"/>
+      <c r="E807" s="6"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="A808" s="6"/>
+      <c r="D808" s="6"/>
+      <c r="E808" s="6"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="A809" s="6"/>
+      <c r="D809" s="6"/>
+      <c r="E809" s="6"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="A810" s="6"/>
+      <c r="D810" s="6"/>
+      <c r="E810" s="6"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="A811" s="6"/>
+      <c r="D811" s="6"/>
+      <c r="E811" s="6"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="A812" s="6"/>
+      <c r="D812" s="6"/>
+      <c r="E812" s="6"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="A813" s="6"/>
+      <c r="D813" s="6"/>
+      <c r="E813" s="6"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="A814" s="6"/>
+      <c r="D814" s="6"/>
+      <c r="E814" s="6"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="A815" s="6"/>
+      <c r="D815" s="6"/>
+      <c r="E815" s="6"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="A816" s="6"/>
+      <c r="D816" s="6"/>
+      <c r="E816" s="6"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="A817" s="6"/>
+      <c r="D817" s="6"/>
+      <c r="E817" s="6"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="A818" s="6"/>
+      <c r="D818" s="6"/>
+      <c r="E818" s="6"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="A819" s="6"/>
+      <c r="D819" s="6"/>
+      <c r="E819" s="6"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="A820" s="6"/>
+      <c r="D820" s="6"/>
+      <c r="E820" s="6"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="A821" s="6"/>
+      <c r="D821" s="6"/>
+      <c r="E821" s="6"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="A822" s="6"/>
+      <c r="D822" s="6"/>
+      <c r="E822" s="6"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="A823" s="6"/>
+      <c r="D823" s="6"/>
+      <c r="E823" s="6"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="A824" s="6"/>
+      <c r="D824" s="6"/>
+      <c r="E824" s="6"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="A825" s="6"/>
+      <c r="D825" s="6"/>
+      <c r="E825" s="6"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="A826" s="6"/>
+      <c r="D826" s="6"/>
+      <c r="E826" s="6"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="A827" s="6"/>
+      <c r="D827" s="6"/>
+      <c r="E827" s="6"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="A828" s="6"/>
+      <c r="D828" s="6"/>
+      <c r="E828" s="6"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="A829" s="6"/>
+      <c r="D829" s="6"/>
+      <c r="E829" s="6"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="A830" s="6"/>
+      <c r="D830" s="6"/>
+      <c r="E830" s="6"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="A831" s="6"/>
+      <c r="D831" s="6"/>
+      <c r="E831" s="6"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="A832" s="6"/>
+      <c r="D832" s="6"/>
+      <c r="E832" s="6"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="A833" s="6"/>
+      <c r="D833" s="6"/>
+      <c r="E833" s="6"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="A834" s="6"/>
+      <c r="D834" s="6"/>
+      <c r="E834" s="6"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="A835" s="6"/>
+      <c r="D835" s="6"/>
+      <c r="E835" s="6"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="A836" s="6"/>
+      <c r="D836" s="6"/>
+      <c r="E836" s="6"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="A837" s="6"/>
+      <c r="D837" s="6"/>
+      <c r="E837" s="6"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="A838" s="6"/>
+      <c r="D838" s="6"/>
+      <c r="E838" s="6"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="A839" s="6"/>
+      <c r="D839" s="6"/>
+      <c r="E839" s="6"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="A840" s="6"/>
+      <c r="D840" s="6"/>
+      <c r="E840" s="6"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="A841" s="6"/>
+      <c r="D841" s="6"/>
+      <c r="E841" s="6"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="A842" s="6"/>
+      <c r="D842" s="6"/>
+      <c r="E842" s="6"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="A843" s="6"/>
+      <c r="D843" s="6"/>
+      <c r="E843" s="6"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="A844" s="6"/>
+      <c r="D844" s="6"/>
+      <c r="E844" s="6"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="A845" s="6"/>
+      <c r="D845" s="6"/>
+      <c r="E845" s="6"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="A846" s="6"/>
+      <c r="D846" s="6"/>
+      <c r="E846" s="6"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="A847" s="6"/>
+      <c r="D847" s="6"/>
+      <c r="E847" s="6"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="A848" s="6"/>
+      <c r="D848" s="6"/>
+      <c r="E848" s="6"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="A849" s="6"/>
+      <c r="D849" s="6"/>
+      <c r="E849" s="6"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="A850" s="6"/>
+      <c r="D850" s="6"/>
+      <c r="E850" s="6"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="A851" s="6"/>
+      <c r="D851" s="6"/>
+      <c r="E851" s="6"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="A852" s="6"/>
+      <c r="D852" s="6"/>
+      <c r="E852" s="6"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="A853" s="6"/>
+      <c r="D853" s="6"/>
+      <c r="E853" s="6"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="A854" s="6"/>
+      <c r="D854" s="6"/>
+      <c r="E854" s="6"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="A855" s="6"/>
+      <c r="D855" s="6"/>
+      <c r="E855" s="6"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="A856" s="6"/>
+      <c r="D856" s="6"/>
+      <c r="E856" s="6"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="A857" s="6"/>
+      <c r="D857" s="6"/>
+      <c r="E857" s="6"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="A858" s="6"/>
+      <c r="D858" s="6"/>
+      <c r="E858" s="6"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="A859" s="6"/>
+      <c r="D859" s="6"/>
+      <c r="E859" s="6"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="A860" s="6"/>
+      <c r="D860" s="6"/>
+      <c r="E860" s="6"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="A861" s="6"/>
+      <c r="D861" s="6"/>
+      <c r="E861" s="6"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="A862" s="6"/>
+      <c r="D862" s="6"/>
+      <c r="E862" s="6"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="A863" s="6"/>
+      <c r="D863" s="6"/>
+      <c r="E863" s="6"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="A864" s="6"/>
+      <c r="D864" s="6"/>
+      <c r="E864" s="6"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="A865" s="6"/>
+      <c r="D865" s="6"/>
+      <c r="E865" s="6"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="A866" s="6"/>
+      <c r="D866" s="6"/>
+      <c r="E866" s="6"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="A867" s="6"/>
+      <c r="D867" s="6"/>
+      <c r="E867" s="6"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="A868" s="6"/>
+      <c r="D868" s="6"/>
+      <c r="E868" s="6"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="A869" s="6"/>
+      <c r="D869" s="6"/>
+      <c r="E869" s="6"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="A870" s="6"/>
+      <c r="D870" s="6"/>
+      <c r="E870" s="6"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="A871" s="6"/>
+      <c r="D871" s="6"/>
+      <c r="E871" s="6"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="A872" s="6"/>
+      <c r="D872" s="6"/>
+      <c r="E872" s="6"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="A873" s="6"/>
+      <c r="D873" s="6"/>
+      <c r="E873" s="6"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="A874" s="6"/>
+      <c r="D874" s="6"/>
+      <c r="E874" s="6"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="A875" s="6"/>
+      <c r="D875" s="6"/>
+      <c r="E875" s="6"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="A876" s="6"/>
+      <c r="D876" s="6"/>
+      <c r="E876" s="6"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="A877" s="6"/>
+      <c r="D877" s="6"/>
+      <c r="E877" s="6"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="A878" s="6"/>
+      <c r="D878" s="6"/>
+      <c r="E878" s="6"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="A879" s="6"/>
+      <c r="D879" s="6"/>
+      <c r="E879" s="6"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="A880" s="6"/>
+      <c r="D880" s="6"/>
+      <c r="E880" s="6"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="A881" s="6"/>
+      <c r="D881" s="6"/>
+      <c r="E881" s="6"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="A882" s="6"/>
+      <c r="D882" s="6"/>
+      <c r="E882" s="6"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="A883" s="6"/>
+      <c r="D883" s="6"/>
+      <c r="E883" s="6"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="A884" s="6"/>
+      <c r="D884" s="6"/>
+      <c r="E884" s="6"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="A885" s="6"/>
+      <c r="D885" s="6"/>
+      <c r="E885" s="6"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="A886" s="6"/>
+      <c r="D886" s="6"/>
+      <c r="E886" s="6"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="A887" s="6"/>
+      <c r="D887" s="6"/>
+      <c r="E887" s="6"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="A888" s="6"/>
+      <c r="D888" s="6"/>
+      <c r="E888" s="6"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="A889" s="6"/>
+      <c r="D889" s="6"/>
+      <c r="E889" s="6"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="A890" s="6"/>
+      <c r="D890" s="6"/>
+      <c r="E890" s="6"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="A891" s="6"/>
+      <c r="D891" s="6"/>
+      <c r="E891" s="6"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="A892" s="6"/>
+      <c r="D892" s="6"/>
+      <c r="E892" s="6"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="A893" s="6"/>
+      <c r="D893" s="6"/>
+      <c r="E893" s="6"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="A894" s="6"/>
+      <c r="D894" s="6"/>
+      <c r="E894" s="6"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="A895" s="6"/>
+      <c r="D895" s="6"/>
+      <c r="E895" s="6"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="A896" s="6"/>
+      <c r="D896" s="6"/>
+      <c r="E896" s="6"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="A897" s="6"/>
+      <c r="D897" s="6"/>
+      <c r="E897" s="6"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="A898" s="6"/>
+      <c r="D898" s="6"/>
+      <c r="E898" s="6"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="A899" s="6"/>
+      <c r="D899" s="6"/>
+      <c r="E899" s="6"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="A900" s="6"/>
+      <c r="D900" s="6"/>
+      <c r="E900" s="6"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="A901" s="6"/>
+      <c r="D901" s="6"/>
+      <c r="E901" s="6"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="A902" s="6"/>
+      <c r="D902" s="6"/>
+      <c r="E902" s="6"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="A903" s="6"/>
+      <c r="D903" s="6"/>
+      <c r="E903" s="6"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="A904" s="6"/>
+      <c r="D904" s="6"/>
+      <c r="E904" s="6"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="A905" s="6"/>
+      <c r="D905" s="6"/>
+      <c r="E905" s="6"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="A906" s="6"/>
+      <c r="D906" s="6"/>
+      <c r="E906" s="6"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="A907" s="6"/>
+      <c r="D907" s="6"/>
+      <c r="E907" s="6"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="A908" s="6"/>
+      <c r="D908" s="6"/>
+      <c r="E908" s="6"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="A909" s="6"/>
+      <c r="D909" s="6"/>
+      <c r="E909" s="6"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="A910" s="6"/>
+      <c r="D910" s="6"/>
+      <c r="E910" s="6"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="A911" s="6"/>
+      <c r="D911" s="6"/>
+      <c r="E911" s="6"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="A912" s="6"/>
+      <c r="D912" s="6"/>
+      <c r="E912" s="6"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="A913" s="6"/>
+      <c r="D913" s="6"/>
+      <c r="E913" s="6"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="A914" s="6"/>
+      <c r="D914" s="6"/>
+      <c r="E914" s="6"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="A915" s="6"/>
+      <c r="D915" s="6"/>
+      <c r="E915" s="6"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="A916" s="6"/>
+      <c r="D916" s="6"/>
+      <c r="E916" s="6"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="A917" s="6"/>
+      <c r="D917" s="6"/>
+      <c r="E917" s="6"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="A918" s="6"/>
+      <c r="D918" s="6"/>
+      <c r="E918" s="6"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="A919" s="6"/>
+      <c r="D919" s="6"/>
+      <c r="E919" s="6"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="A920" s="6"/>
+      <c r="D920" s="6"/>
+      <c r="E920" s="6"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="A921" s="6"/>
+      <c r="D921" s="6"/>
+      <c r="E921" s="6"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="A922" s="6"/>
+      <c r="D922" s="6"/>
+      <c r="E922" s="6"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="A923" s="6"/>
+      <c r="D923" s="6"/>
+      <c r="E923" s="6"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="A924" s="6"/>
+      <c r="D924" s="6"/>
+      <c r="E924" s="6"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="A925" s="6"/>
+      <c r="D925" s="6"/>
+      <c r="E925" s="6"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="A926" s="6"/>
+      <c r="D926" s="6"/>
+      <c r="E926" s="6"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="A927" s="6"/>
+      <c r="D927" s="6"/>
+      <c r="E927" s="6"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="A928" s="6"/>
+      <c r="D928" s="6"/>
+      <c r="E928" s="6"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="A929" s="6"/>
+      <c r="D929" s="6"/>
+      <c r="E929" s="6"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="A930" s="6"/>
+      <c r="D930" s="6"/>
+      <c r="E930" s="6"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="A931" s="6"/>
+      <c r="D931" s="6"/>
+      <c r="E931" s="6"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="A932" s="6"/>
+      <c r="D932" s="6"/>
+      <c r="E932" s="6"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="A933" s="6"/>
+      <c r="D933" s="6"/>
+      <c r="E933" s="6"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="A934" s="6"/>
+      <c r="D934" s="6"/>
+      <c r="E934" s="6"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="A935" s="6"/>
+      <c r="D935" s="6"/>
+      <c r="E935" s="6"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="A936" s="6"/>
+      <c r="D936" s="6"/>
+      <c r="E936" s="6"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="A937" s="6"/>
+      <c r="D937" s="6"/>
+      <c r="E937" s="6"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="A938" s="6"/>
+      <c r="D938" s="6"/>
+      <c r="E938" s="6"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="A939" s="6"/>
+      <c r="D939" s="6"/>
+      <c r="E939" s="6"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="A940" s="6"/>
+      <c r="D940" s="6"/>
+      <c r="E940" s="6"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="A941" s="6"/>
+      <c r="D941" s="6"/>
+      <c r="E941" s="6"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="A942" s="6"/>
+      <c r="D942" s="6"/>
+      <c r="E942" s="6"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="A943" s="6"/>
+      <c r="D943" s="6"/>
+      <c r="E943" s="6"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="A944" s="6"/>
+      <c r="D944" s="6"/>
+      <c r="E944" s="6"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="A945" s="6"/>
+      <c r="D945" s="6"/>
+      <c r="E945" s="6"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="A946" s="6"/>
+      <c r="D946" s="6"/>
+      <c r="E946" s="6"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="A947" s="6"/>
+      <c r="D947" s="6"/>
+      <c r="E947" s="6"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="A948" s="6"/>
+      <c r="D948" s="6"/>
+      <c r="E948" s="6"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="A949" s="6"/>
+      <c r="D949" s="6"/>
+      <c r="E949" s="6"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="A950" s="6"/>
+      <c r="D950" s="6"/>
+      <c r="E950" s="6"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="A951" s="6"/>
+      <c r="D951" s="6"/>
+      <c r="E951" s="6"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="A952" s="6"/>
+      <c r="D952" s="6"/>
+      <c r="E952" s="6"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="A953" s="6"/>
+      <c r="D953" s="6"/>
+      <c r="E953" s="6"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="A954" s="6"/>
+      <c r="D954" s="6"/>
+      <c r="E954" s="6"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="A955" s="6"/>
+      <c r="D955" s="6"/>
+      <c r="E955" s="6"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="A956" s="6"/>
+      <c r="D956" s="6"/>
+      <c r="E956" s="6"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="A957" s="6"/>
+      <c r="D957" s="6"/>
+      <c r="E957" s="6"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="A958" s="6"/>
+      <c r="D958" s="6"/>
+      <c r="E958" s="6"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="A959" s="6"/>
+      <c r="D959" s="6"/>
+      <c r="E959" s="6"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="A960" s="6"/>
+      <c r="D960" s="6"/>
+      <c r="E960" s="6"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="A961" s="6"/>
+      <c r="D961" s="6"/>
+      <c r="E961" s="6"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="A962" s="6"/>
+      <c r="D962" s="6"/>
+      <c r="E962" s="6"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="A963" s="6"/>
+      <c r="D963" s="6"/>
+      <c r="E963" s="6"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="A964" s="6"/>
+      <c r="D964" s="6"/>
+      <c r="E964" s="6"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="A965" s="6"/>
+      <c r="D965" s="6"/>
+      <c r="E965" s="6"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="A966" s="6"/>
+      <c r="D966" s="6"/>
+      <c r="E966" s="6"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="A967" s="6"/>
+      <c r="D967" s="6"/>
+      <c r="E967" s="6"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="A968" s="6"/>
+      <c r="D968" s="6"/>
+      <c r="E968" s="6"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="A969" s="6"/>
+      <c r="D969" s="6"/>
+      <c r="E969" s="6"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="A970" s="6"/>
+      <c r="D970" s="6"/>
+      <c r="E970" s="6"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="A971" s="6"/>
+      <c r="D971" s="6"/>
+      <c r="E971" s="6"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="A972" s="6"/>
+      <c r="D972" s="6"/>
+      <c r="E972" s="6"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="A973" s="6"/>
+      <c r="D973" s="6"/>
+      <c r="E973" s="6"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="A974" s="6"/>
+      <c r="D974" s="6"/>
+      <c r="E974" s="6"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="A975" s="6"/>
+      <c r="D975" s="6"/>
+      <c r="E975" s="6"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="A976" s="6"/>
+      <c r="D976" s="6"/>
+      <c r="E976" s="6"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="A977" s="6"/>
+      <c r="D977" s="6"/>
+      <c r="E977" s="6"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="A978" s="6"/>
+      <c r="D978" s="6"/>
+      <c r="E978" s="6"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="A979" s="6"/>
+      <c r="D979" s="6"/>
+      <c r="E979" s="6"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="A980" s="6"/>
+      <c r="D980" s="6"/>
+      <c r="E980" s="6"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="A981" s="6"/>
+      <c r="D981" s="6"/>
+      <c r="E981" s="6"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="A982" s="6"/>
+      <c r="D982" s="6"/>
+      <c r="E982" s="6"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="A983" s="6"/>
+      <c r="D983" s="6"/>
+      <c r="E983" s="6"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="A984" s="6"/>
+      <c r="D984" s="6"/>
+      <c r="E984" s="6"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="A985" s="6"/>
+      <c r="D985" s="6"/>
+      <c r="E985" s="6"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="A986" s="6"/>
+      <c r="D986" s="6"/>
+      <c r="E986" s="6"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="A987" s="6"/>
+      <c r="D987" s="6"/>
+      <c r="E987" s="6"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="A988" s="6"/>
+      <c r="D988" s="6"/>
+      <c r="E988" s="6"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="A989" s="6"/>
+      <c r="D989" s="6"/>
+      <c r="E989" s="6"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="A990" s="6"/>
+      <c r="D990" s="6"/>
+      <c r="E990" s="6"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="A991" s="6"/>
+      <c r="D991" s="6"/>
+      <c r="E991" s="6"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="A992" s="6"/>
+      <c r="D992" s="6"/>
+      <c r="E992" s="6"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="A993" s="6"/>
+      <c r="D993" s="6"/>
+      <c r="E993" s="6"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="A994" s="6"/>
+      <c r="D994" s="6"/>
+      <c r="E994" s="6"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="A995" s="6"/>
+      <c r="D995" s="6"/>
+      <c r="E995" s="6"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="A996" s="6"/>
+      <c r="D996" s="6"/>
+      <c r="E996" s="6"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="A997" s="6"/>
+      <c r="D997" s="6"/>
+      <c r="E997" s="6"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="A998" s="6"/>
+      <c r="D998" s="6"/>
+      <c r="E998" s="6"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="A999" s="6"/>
+      <c r="D999" s="6"/>
+      <c r="E999" s="6"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="A1000" s="6"/>
+      <c r="D1000" s="6"/>
+      <c r="E1000" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
